--- a/datos/PRECIOS Y VENTAS (Autoguardado).xlsx
+++ b/datos/PRECIOS Y VENTAS (Autoguardado).xlsx
@@ -1,27 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F456A5-B53A-4B4B-AF85-D829E80951A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="precios" sheetId="1" r:id="rId1"/>
     <sheet name="pedidos" sheetId="2" r:id="rId2"/>
     <sheet name="money" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="821">
   <si>
     <t>CÓDIGO Y NOMBRE</t>
   </si>
@@ -2522,11 +2532,14 @@
   <si>
     <t>NHKI760284 FUNDA 8PLUS</t>
   </si>
+  <si>
+    <t>gramaje compra</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -3032,7 +3045,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3310,26 +3323,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="B246" sqref="B246"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
-    <col min="4" max="7" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="11" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="3"/>
-    <col min="12" max="16" width="10.5703125" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="3"/>
+    <col min="12" max="16" width="10.5" customWidth="1"/>
+    <col min="17" max="17" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3382,7 +3395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="25" t="s">
         <v>9</v>
       </c>
@@ -3428,7 +3441,7 @@
       <c r="N2" s="96"/>
       <c r="O2" s="96"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -3473,7 +3486,7 @@
       </c>
       <c r="N3" s="96"/>
     </row>
-    <row r="4" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
@@ -3518,7 +3531,7 @@
       </c>
       <c r="N4" s="96"/>
     </row>
-    <row r="5" spans="2:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="25" t="s">
         <v>11</v>
       </c>
@@ -3563,7 +3576,7 @@
       </c>
       <c r="N5" s="96"/>
     </row>
-    <row r="6" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
@@ -3608,7 +3621,7 @@
       </c>
       <c r="N6" s="96"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -3653,7 +3666,7 @@
       </c>
       <c r="N7" s="96"/>
     </row>
-    <row r="8" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" s="48" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="48" t="s">
         <v>14</v>
       </c>
@@ -3698,7 +3711,7 @@
       </c>
       <c r="N8" s="96"/>
     </row>
-    <row r="9" spans="2:18" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="s">
         <v>15</v>
       </c>
@@ -3743,7 +3756,7 @@
       </c>
       <c r="N9" s="96"/>
     </row>
-    <row r="10" spans="2:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="33" t="s">
         <v>16</v>
       </c>
@@ -3788,7 +3801,7 @@
       </c>
       <c r="N10" s="96"/>
     </row>
-    <row r="11" spans="2:18" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
         <v>17</v>
       </c>
@@ -3833,7 +3846,7 @@
       </c>
       <c r="N11" s="96"/>
     </row>
-    <row r="12" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
         <v>18</v>
       </c>
@@ -3878,7 +3891,7 @@
       </c>
       <c r="N12" s="96"/>
     </row>
-    <row r="13" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
         <v>19</v>
       </c>
@@ -3923,7 +3936,7 @@
       </c>
       <c r="N13" s="96"/>
     </row>
-    <row r="14" spans="2:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="25" t="s">
         <v>20</v>
       </c>
@@ -3968,7 +3981,7 @@
       </c>
       <c r="N14" s="96"/>
     </row>
-    <row r="15" spans="2:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="25" t="s">
         <v>21</v>
       </c>
@@ -4013,7 +4026,7 @@
       </c>
       <c r="N15" s="96"/>
     </row>
-    <row r="16" spans="2:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="25" t="s">
         <v>39</v>
       </c>
@@ -4058,7 +4071,7 @@
       </c>
       <c r="N16" s="96"/>
     </row>
-    <row r="17" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
         <v>40</v>
       </c>
@@ -4103,7 +4116,7 @@
       </c>
       <c r="N17" s="96"/>
     </row>
-    <row r="18" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="25" t="s">
         <v>38</v>
       </c>
@@ -4148,7 +4161,7 @@
       </c>
       <c r="N18" s="96"/>
     </row>
-    <row r="19" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="25" t="s">
         <v>22</v>
       </c>
@@ -4193,7 +4206,7 @@
       </c>
       <c r="N19" s="96"/>
     </row>
-    <row r="20" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="25" t="s">
         <v>23</v>
       </c>
@@ -4238,7 +4251,7 @@
       </c>
       <c r="N20" s="96"/>
     </row>
-    <row r="21" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
         <v>24</v>
       </c>
@@ -4283,7 +4296,7 @@
       </c>
       <c r="N21" s="96"/>
     </row>
-    <row r="22" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="s">
         <v>41</v>
       </c>
@@ -4328,7 +4341,7 @@
       </c>
       <c r="N22" s="96"/>
     </row>
-    <row r="23" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="25" t="s">
         <v>44</v>
       </c>
@@ -4373,7 +4386,7 @@
       </c>
       <c r="N23" s="96"/>
     </row>
-    <row r="24" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="15" t="s">
         <v>43</v>
       </c>
@@ -4418,7 +4431,7 @@
       </c>
       <c r="N24" s="96"/>
     </row>
-    <row r="25" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="25" t="s">
         <v>42</v>
       </c>
@@ -4463,7 +4476,7 @@
       </c>
       <c r="N25" s="96"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -4508,7 +4521,7 @@
       </c>
       <c r="N26" s="96"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -4553,7 +4566,7 @@
       </c>
       <c r="N27" s="96"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -4598,7 +4611,7 @@
       </c>
       <c r="N28" s="96"/>
     </row>
-    <row r="29" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>28</v>
       </c>
@@ -4643,7 +4656,7 @@
       </c>
       <c r="N29" s="96"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -4688,7 +4701,7 @@
       </c>
       <c r="N30" s="96"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -4733,7 +4746,7 @@
       </c>
       <c r="N31" s="96"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>31</v>
       </c>
@@ -4778,7 +4791,7 @@
       </c>
       <c r="N32" s="96"/>
     </row>
-    <row r="33" spans="2:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10" t="s">
         <v>32</v>
       </c>
@@ -4823,7 +4836,7 @@
       </c>
       <c r="N33" s="96"/>
     </row>
-    <row r="34" spans="2:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
         <v>33</v>
       </c>
@@ -4868,7 +4881,7 @@
       </c>
       <c r="N34" s="96"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>34</v>
       </c>
@@ -4913,7 +4926,7 @@
       </c>
       <c r="N35" s="96"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>35</v>
       </c>
@@ -4958,7 +4971,7 @@
       </c>
       <c r="N36" s="96"/>
     </row>
-    <row r="37" spans="2:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
         <v>36</v>
       </c>
@@ -5003,7 +5016,7 @@
       </c>
       <c r="N37" s="96"/>
     </row>
-    <row r="38" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>37</v>
       </c>
@@ -5048,7 +5061,7 @@
       </c>
       <c r="N38" s="96"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="F39" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
@@ -5075,7 +5088,7 @@
       </c>
       <c r="N39" s="96"/>
     </row>
-    <row r="40" spans="2:19" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C40" s="71"/>
       <c r="H40" s="72"/>
       <c r="I40" s="73"/>
@@ -5086,7 +5099,7 @@
       </c>
       <c r="N40" s="96"/>
     </row>
-    <row r="41" spans="2:19" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="70" t="s">
         <v>68</v>
       </c>
@@ -5119,7 +5132,7 @@
       </c>
       <c r="N41" s="96"/>
     </row>
-    <row r="42" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="15" t="s">
         <v>48</v>
       </c>
@@ -5164,7 +5177,7 @@
       </c>
       <c r="N42" s="96"/>
     </row>
-    <row r="43" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="15" t="s">
         <v>49</v>
       </c>
@@ -5209,7 +5222,7 @@
       </c>
       <c r="N43" s="96"/>
     </row>
-    <row r="44" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="20" t="s">
         <v>50</v>
       </c>
@@ -5254,7 +5267,7 @@
       </c>
       <c r="N44" s="96"/>
     </row>
-    <row r="45" spans="2:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="33" t="s">
         <v>51</v>
       </c>
@@ -5309,7 +5322,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="46" spans="2:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="25" t="s">
         <v>53</v>
       </c>
@@ -5361,7 +5374,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>52</v>
       </c>
@@ -5412,7 +5425,7 @@
         <v>1240.97</v>
       </c>
     </row>
-    <row r="48" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="5" t="s">
         <v>66</v>
       </c>
@@ -5464,7 +5477,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="49" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="20" t="s">
         <v>54</v>
       </c>
@@ -5516,7 +5529,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="50" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="20" t="s">
         <v>55</v>
       </c>
@@ -5568,7 +5581,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="51" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="15" t="s">
         <v>56</v>
       </c>
@@ -5613,7 +5626,7 @@
       </c>
       <c r="N51" s="96"/>
     </row>
-    <row r="52" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
         <v>57</v>
       </c>
@@ -5658,7 +5671,7 @@
       </c>
       <c r="N52" s="96"/>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>58</v>
       </c>
@@ -5703,7 +5716,7 @@
       </c>
       <c r="N53" s="96"/>
     </row>
-    <row r="54" spans="2:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="25" t="s">
         <v>59</v>
       </c>
@@ -5748,7 +5761,7 @@
       </c>
       <c r="N54" s="96"/>
     </row>
-    <row r="55" spans="2:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:19" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="33" t="s">
         <v>60</v>
       </c>
@@ -5793,7 +5806,7 @@
       </c>
       <c r="N55" s="96"/>
     </row>
-    <row r="56" spans="2:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:19" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="43" t="s">
         <v>61</v>
       </c>
@@ -5838,7 +5851,7 @@
       </c>
       <c r="N56" s="96"/>
     </row>
-    <row r="57" spans="2:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="25" t="s">
         <v>62</v>
       </c>
@@ -5883,7 +5896,7 @@
       </c>
       <c r="N57" s="96"/>
     </row>
-    <row r="58" spans="2:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="25" t="s">
         <v>63</v>
       </c>
@@ -5928,7 +5941,7 @@
       </c>
       <c r="N58" s="96"/>
     </row>
-    <row r="59" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="5" t="s">
         <v>64</v>
       </c>
@@ -5973,7 +5986,7 @@
       </c>
       <c r="N59" s="96"/>
     </row>
-    <row r="60" spans="2:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="25" t="s">
         <v>65</v>
       </c>
@@ -6018,7 +6031,7 @@
       </c>
       <c r="N60" s="96"/>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="e">
         <f>C42+C43+C44+C46+C45+C47+C48+C49+C50+C51+C52+C53+#REF!+C54+C55+C56+C57+C58+C59+C60</f>
         <v>#REF!</v>
@@ -6060,7 +6073,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="62" spans="2:19" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:19" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="71"/>
       <c r="H62" s="72"/>
       <c r="I62" s="73"/>
@@ -6071,7 +6084,7 @@
       </c>
       <c r="N62" s="96"/>
     </row>
-    <row r="63" spans="2:19" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:19" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="70" t="s">
         <v>69</v>
       </c>
@@ -6111,7 +6124,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="64" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="15" t="s">
         <v>70</v>
       </c>
@@ -6162,7 +6175,7 @@
         <v>653.15</v>
       </c>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>233</v>
       </c>
@@ -6214,7 +6227,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>228</v>
       </c>
@@ -6266,7 +6279,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="67" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="5" t="s">
         <v>225</v>
       </c>
@@ -6311,7 +6324,7 @@
       </c>
       <c r="N67" s="96"/>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>226</v>
       </c>
@@ -6356,7 +6369,7 @@
       </c>
       <c r="N68" s="96"/>
     </row>
-    <row r="69" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="5" t="s">
         <v>227</v>
       </c>
@@ -6401,7 +6414,7 @@
       </c>
       <c r="N69" s="96"/>
     </row>
-    <row r="70" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="51" t="s">
         <v>79</v>
       </c>
@@ -6446,7 +6459,7 @@
       </c>
       <c r="N70" s="96"/>
     </row>
-    <row r="71" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="5" t="s">
         <v>71</v>
       </c>
@@ -6491,7 +6504,7 @@
       </c>
       <c r="N71" s="96"/>
     </row>
-    <row r="72" spans="2:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="25" t="s">
         <v>234</v>
       </c>
@@ -6536,7 +6549,7 @@
       </c>
       <c r="N72" s="96"/>
     </row>
-    <row r="73" spans="2:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="10" t="s">
         <v>72</v>
       </c>
@@ -6581,7 +6594,7 @@
       </c>
       <c r="N73" s="96"/>
     </row>
-    <row r="74" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="15" t="s">
         <v>73</v>
       </c>
@@ -6626,7 +6639,7 @@
       </c>
       <c r="N74" s="96"/>
     </row>
-    <row r="75" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="5" t="s">
         <v>74</v>
       </c>
@@ -6671,7 +6684,7 @@
       </c>
       <c r="N75" s="96"/>
     </row>
-    <row r="76" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="15" t="s">
         <v>235</v>
       </c>
@@ -6716,7 +6729,7 @@
       </c>
       <c r="N76" s="96"/>
     </row>
-    <row r="77" spans="2:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="25" t="s">
         <v>80</v>
       </c>
@@ -6761,7 +6774,7 @@
       </c>
       <c r="N77" s="96"/>
     </row>
-    <row r="78" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="15" t="s">
         <v>75</v>
       </c>
@@ -6806,7 +6819,7 @@
       </c>
       <c r="N78" s="96"/>
     </row>
-    <row r="79" spans="2:19" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:19" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="30" t="s">
         <v>77</v>
       </c>
@@ -6851,7 +6864,7 @@
       </c>
       <c r="N79" s="96"/>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>76</v>
       </c>
@@ -6896,7 +6909,7 @@
       </c>
       <c r="N80" s="96"/>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>232</v>
       </c>
@@ -6941,7 +6954,7 @@
       </c>
       <c r="N81" s="96"/>
     </row>
-    <row r="82" spans="2:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="38" t="s">
         <v>231</v>
       </c>
@@ -6986,7 +6999,7 @@
       </c>
       <c r="N82" s="96"/>
     </row>
-    <row r="83" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="10" t="s">
         <v>230</v>
       </c>
@@ -7031,7 +7044,7 @@
       </c>
       <c r="N83" s="96"/>
     </row>
-    <row r="84" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="10" t="s">
         <v>78</v>
       </c>
@@ -7076,7 +7089,7 @@
       </c>
       <c r="N84" s="96"/>
     </row>
-    <row r="85" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="10" t="s">
         <v>229</v>
       </c>
@@ -7121,7 +7134,7 @@
       </c>
       <c r="N85" s="96"/>
     </row>
-    <row r="86" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C86" s="11"/>
       <c r="H86" s="12"/>
       <c r="I86" s="13"/>
@@ -7132,7 +7145,7 @@
       </c>
       <c r="N86" s="96"/>
     </row>
-    <row r="87" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C87" s="11"/>
       <c r="H87" s="12"/>
       <c r="I87" s="13"/>
@@ -7143,7 +7156,7 @@
       </c>
       <c r="N87" s="96"/>
     </row>
-    <row r="88" spans="2:17" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C88" s="71"/>
       <c r="H88" s="72"/>
       <c r="I88" s="73"/>
@@ -7154,7 +7167,7 @@
       </c>
       <c r="N88" s="96"/>
     </row>
-    <row r="89" spans="2:17" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:17" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="70" t="s">
         <v>238</v>
       </c>
@@ -7168,7 +7181,7 @@
       </c>
       <c r="N89" s="96"/>
     </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>0</v>
       </c>
@@ -7211,7 +7224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="33" t="s">
         <v>102</v>
       </c>
@@ -7256,7 +7269,7 @@
       </c>
       <c r="N91" s="96"/>
     </row>
-    <row r="92" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="33" t="s">
         <v>103</v>
       </c>
@@ -7301,7 +7314,7 @@
       </c>
       <c r="N92" s="96"/>
     </row>
-    <row r="93" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="33" t="s">
         <v>104</v>
       </c>
@@ -7346,7 +7359,7 @@
       </c>
       <c r="N93" s="96"/>
     </row>
-    <row r="94" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="10" t="s">
         <v>105</v>
       </c>
@@ -7391,7 +7404,7 @@
       </c>
       <c r="N94" s="96"/>
     </row>
-    <row r="95" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="15" t="s">
         <v>106</v>
       </c>
@@ -7436,7 +7449,7 @@
       </c>
       <c r="N95" s="96"/>
     </row>
-    <row r="96" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="10" t="s">
         <v>107</v>
       </c>
@@ -7481,7 +7494,7 @@
       </c>
       <c r="N96" s="96"/>
     </row>
-    <row r="97" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="10" t="s">
         <v>108</v>
       </c>
@@ -7526,7 +7539,7 @@
       </c>
       <c r="N97" s="96"/>
     </row>
-    <row r="98" spans="2:17" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:17" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="52" t="s">
         <v>109</v>
       </c>
@@ -7571,7 +7584,7 @@
       </c>
       <c r="N98" s="96"/>
     </row>
-    <row r="99" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="5" t="s">
         <v>110</v>
       </c>
@@ -7616,7 +7629,7 @@
       </c>
       <c r="N99" s="96"/>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>111</v>
       </c>
@@ -7661,7 +7674,7 @@
       </c>
       <c r="N100" s="96"/>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>113</v>
       </c>
@@ -7706,7 +7719,7 @@
       </c>
       <c r="N101" s="96"/>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>112</v>
       </c>
@@ -7751,7 +7764,7 @@
       </c>
       <c r="N102" s="96"/>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>114</v>
       </c>
@@ -7796,7 +7809,7 @@
       </c>
       <c r="N103" s="96"/>
     </row>
-    <row r="104" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="15" t="s">
         <v>115</v>
       </c>
@@ -7841,7 +7854,7 @@
       </c>
       <c r="N104" s="96"/>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>116</v>
       </c>
@@ -7889,7 +7902,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="106" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="5" t="s">
         <v>118</v>
       </c>
@@ -7934,7 +7947,7 @@
       </c>
       <c r="N106" s="96"/>
     </row>
-    <row r="107" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="33" t="s">
         <v>119</v>
       </c>
@@ -7979,7 +7992,7 @@
       </c>
       <c r="N107" s="96"/>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>120</v>
       </c>
@@ -8024,7 +8037,7 @@
       </c>
       <c r="N108" s="96"/>
     </row>
-    <row r="109" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="33" t="s">
         <v>122</v>
       </c>
@@ -8069,7 +8082,7 @@
       </c>
       <c r="N109" s="96"/>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>123</v>
       </c>
@@ -8114,7 +8127,7 @@
       </c>
       <c r="N110" s="96"/>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>124</v>
       </c>
@@ -8159,7 +8172,7 @@
       </c>
       <c r="N111" s="96"/>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>125</v>
       </c>
@@ -8204,7 +8217,7 @@
       </c>
       <c r="N112" s="96"/>
     </row>
-    <row r="113" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113" s="15" t="s">
         <v>126</v>
       </c>
@@ -8249,7 +8262,7 @@
       </c>
       <c r="N113" s="96"/>
     </row>
-    <row r="114" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="25" t="s">
         <v>127</v>
       </c>
@@ -8294,7 +8307,7 @@
       </c>
       <c r="N114" s="96"/>
     </row>
-    <row r="115" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="33" t="s">
         <v>128</v>
       </c>
@@ -8339,7 +8352,7 @@
       </c>
       <c r="N115" s="96"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>129</v>
       </c>
@@ -8384,7 +8397,7 @@
       </c>
       <c r="N116" s="96"/>
     </row>
-    <row r="117" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117" s="33" t="s">
         <v>130</v>
       </c>
@@ -8429,7 +8442,7 @@
       </c>
       <c r="N117" s="96"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>131</v>
       </c>
@@ -8474,7 +8487,7 @@
       </c>
       <c r="N118" s="96"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D119" s="33">
         <v>1000</v>
       </c>
@@ -8487,7 +8500,7 @@
       </c>
       <c r="N119" s="96"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>133</v>
       </c>
@@ -8532,7 +8545,7 @@
       </c>
       <c r="N120" s="96"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>134</v>
       </c>
@@ -8577,7 +8590,7 @@
       </c>
       <c r="N121" s="96"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>135</v>
       </c>
@@ -8622,7 +8635,7 @@
       </c>
       <c r="N122" s="96"/>
     </row>
-    <row r="123" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123" s="33" t="s">
         <v>136</v>
       </c>
@@ -8667,7 +8680,7 @@
       </c>
       <c r="N123" s="96"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>137</v>
       </c>
@@ -8712,7 +8725,7 @@
       </c>
       <c r="N124" s="96"/>
     </row>
-    <row r="125" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="25" t="s">
         <v>138</v>
       </c>
@@ -8757,7 +8770,7 @@
       </c>
       <c r="N125" s="96"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>139</v>
       </c>
@@ -8802,7 +8815,7 @@
       </c>
       <c r="N126" s="96"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>143</v>
       </c>
@@ -8847,14 +8860,14 @@
       </c>
       <c r="N127" s="96"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M128" s="96">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N128" s="96"/>
     </row>
-    <row r="129" spans="2:17" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:17" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C129" s="71"/>
       <c r="H129" s="72"/>
       <c r="I129" s="73"/>
@@ -8865,7 +8878,7 @@
       </c>
       <c r="N129" s="96"/>
     </row>
-    <row r="130" spans="2:17" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:17" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B130" s="70" t="s">
         <v>144</v>
       </c>
@@ -8879,7 +8892,7 @@
       </c>
       <c r="N130" s="96"/>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>0</v>
       </c>
@@ -8922,7 +8935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>158</v>
       </c>
@@ -8967,7 +8980,7 @@
       </c>
       <c r="N132" s="96"/>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B133" s="50" t="s">
         <v>173</v>
       </c>
@@ -9012,7 +9025,7 @@
       </c>
       <c r="N133" s="96"/>
     </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B134" s="50" t="s">
         <v>181</v>
       </c>
@@ -9057,7 +9070,7 @@
       </c>
       <c r="N134" s="96"/>
     </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B135" s="50" t="s">
         <v>220</v>
       </c>
@@ -9102,7 +9115,7 @@
       </c>
       <c r="N135" s="96"/>
     </row>
-    <row r="136" spans="2:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:17" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B136" s="38" t="s">
         <v>223</v>
       </c>
@@ -9147,7 +9160,7 @@
       </c>
       <c r="N136" s="96"/>
     </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B137" s="50" t="s">
         <v>221</v>
       </c>
@@ -9192,7 +9205,7 @@
       </c>
       <c r="N137" s="96"/>
     </row>
-    <row r="138" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B138" s="33" t="s">
         <v>218</v>
       </c>
@@ -9237,7 +9250,7 @@
       </c>
       <c r="N138" s="96"/>
     </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>217</v>
       </c>
@@ -9282,7 +9295,7 @@
       </c>
       <c r="N139" s="96"/>
     </row>
-    <row r="140" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B140" s="48" t="s">
         <v>219</v>
       </c>
@@ -9327,7 +9340,7 @@
       </c>
       <c r="N140" s="96"/>
     </row>
-    <row r="141" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B141" s="33" t="s">
         <v>259</v>
       </c>
@@ -9372,7 +9385,7 @@
       </c>
       <c r="N141" s="96"/>
     </row>
-    <row r="142" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B142" s="33" t="s">
         <v>260</v>
       </c>
@@ -9417,7 +9430,7 @@
       </c>
       <c r="N142" s="96"/>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>141</v>
       </c>
@@ -9462,7 +9475,7 @@
       </c>
       <c r="N143" s="96"/>
     </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B144" s="50" t="s">
         <v>190</v>
       </c>
@@ -9507,7 +9520,7 @@
       </c>
       <c r="N144" s="96"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B145" s="50" t="s">
         <v>182</v>
       </c>
@@ -9552,7 +9565,7 @@
       </c>
       <c r="N145" s="96"/>
     </row>
-    <row r="146" spans="2:14" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C146" s="54"/>
       <c r="D146">
         <v>1000</v>
@@ -9569,7 +9582,7 @@
       </c>
       <c r="N146" s="96"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>146</v>
       </c>
@@ -9614,7 +9627,7 @@
       </c>
       <c r="N147" s="96"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>156</v>
       </c>
@@ -9659,7 +9672,7 @@
       </c>
       <c r="N148" s="96"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>149</v>
       </c>
@@ -9704,7 +9717,7 @@
       </c>
       <c r="N149" s="96"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>151</v>
       </c>
@@ -9749,7 +9762,7 @@
       </c>
       <c r="N150" s="96"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>154</v>
       </c>
@@ -9794,7 +9807,7 @@
       </c>
       <c r="N151" s="96"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>155</v>
       </c>
@@ -9839,7 +9852,7 @@
       </c>
       <c r="N152" s="96"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>157</v>
       </c>
@@ -9884,7 +9897,7 @@
       </c>
       <c r="N153" s="96"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B154" s="50" t="s">
         <v>161</v>
       </c>
@@ -9929,7 +9942,7 @@
       </c>
       <c r="N154" s="96"/>
     </row>
-    <row r="155" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B155" s="51" t="s">
         <v>163</v>
       </c>
@@ -9974,7 +9987,7 @@
       </c>
       <c r="N155" s="96"/>
     </row>
-    <row r="156" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B156" s="51" t="s">
         <v>164</v>
       </c>
@@ -10019,7 +10032,7 @@
       </c>
       <c r="N156" s="96"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B157" s="50" t="s">
         <v>165</v>
       </c>
@@ -10064,7 +10077,7 @@
       </c>
       <c r="N157" s="96"/>
     </row>
-    <row r="158" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B158" s="30" t="s">
         <v>168</v>
       </c>
@@ -10109,7 +10122,7 @@
       </c>
       <c r="N158" s="96"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>172</v>
       </c>
@@ -10154,7 +10167,7 @@
       </c>
       <c r="N159" s="96"/>
     </row>
-    <row r="160" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B160" s="48" t="s">
         <v>174</v>
       </c>
@@ -10199,7 +10212,7 @@
       </c>
       <c r="N160" s="96"/>
     </row>
-    <row r="161" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B161" s="51" t="s">
         <v>175</v>
       </c>
@@ -10244,7 +10257,7 @@
       </c>
       <c r="N161" s="96"/>
     </row>
-    <row r="162" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B162" s="50" t="s">
         <v>176</v>
       </c>
@@ -10289,7 +10302,7 @@
       </c>
       <c r="N162" s="96"/>
     </row>
-    <row r="163" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B163" s="51" t="s">
         <v>177</v>
       </c>
@@ -10334,7 +10347,7 @@
       </c>
       <c r="N163" s="96"/>
     </row>
-    <row r="164" spans="2:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B164" s="53" t="s">
         <v>178</v>
       </c>
@@ -10379,7 +10392,7 @@
       </c>
       <c r="N164" s="96"/>
     </row>
-    <row r="165" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B165" s="50" t="s">
         <v>179</v>
       </c>
@@ -10424,7 +10437,7 @@
       </c>
       <c r="N165" s="96"/>
     </row>
-    <row r="166" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B166" s="50" t="s">
         <v>180</v>
       </c>
@@ -10469,7 +10482,7 @@
       </c>
       <c r="N166" s="96"/>
     </row>
-    <row r="167" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B167" s="51" t="s">
         <v>183</v>
       </c>
@@ -10514,7 +10527,7 @@
       </c>
       <c r="N167" s="96"/>
     </row>
-    <row r="168" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B168" s="50" t="s">
         <v>185</v>
       </c>
@@ -10559,7 +10572,7 @@
       </c>
       <c r="N168" s="96"/>
     </row>
-    <row r="169" spans="2:17" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:17" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B169" s="25" t="s">
         <v>186</v>
       </c>
@@ -10604,7 +10617,7 @@
       </c>
       <c r="N169" s="96"/>
     </row>
-    <row r="170" spans="2:17" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:17" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B170" s="30" t="s">
         <v>187</v>
       </c>
@@ -10649,7 +10662,7 @@
       </c>
       <c r="N170" s="96"/>
     </row>
-    <row r="171" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B171" s="51" t="s">
         <v>188</v>
       </c>
@@ -10694,7 +10707,7 @@
       </c>
       <c r="N171" s="96"/>
     </row>
-    <row r="172" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B172" s="48" t="s">
         <v>189</v>
       </c>
@@ -10739,7 +10752,7 @@
       </c>
       <c r="N172" s="96"/>
     </row>
-    <row r="173" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B173" s="50" t="s">
         <v>191</v>
       </c>
@@ -10784,7 +10797,7 @@
       </c>
       <c r="N173" s="96"/>
     </row>
-    <row r="174" spans="2:17" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:17" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C174" s="71"/>
       <c r="H174" s="72"/>
       <c r="I174" s="73"/>
@@ -10795,7 +10808,7 @@
       </c>
       <c r="N174" s="96"/>
     </row>
-    <row r="175" spans="2:17" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:17" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B175" s="70" t="s">
         <v>145</v>
       </c>
@@ -10809,7 +10822,7 @@
       </c>
       <c r="N175" s="96"/>
     </row>
-    <row r="176" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>0</v>
       </c>
@@ -10852,7 +10865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="2:17" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:17" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B177" s="25" t="s">
         <v>153</v>
       </c>
@@ -10897,7 +10910,7 @@
       </c>
       <c r="N177" s="96"/>
     </row>
-    <row r="178" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B178" s="10" t="s">
         <v>162</v>
       </c>
@@ -10942,7 +10955,7 @@
       </c>
       <c r="N178" s="96"/>
     </row>
-    <row r="179" spans="2:17" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:17" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B179" s="25" t="s">
         <v>267</v>
       </c>
@@ -10987,7 +11000,7 @@
       </c>
       <c r="N179" s="96"/>
     </row>
-    <row r="180" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B180" s="51" t="s">
         <v>265</v>
       </c>
@@ -11032,7 +11045,7 @@
       </c>
       <c r="N180" s="96"/>
     </row>
-    <row r="181" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B181" s="15" t="s">
         <v>272</v>
       </c>
@@ -11077,7 +11090,7 @@
       </c>
       <c r="N181" s="96"/>
     </row>
-    <row r="182" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B182" s="52" t="s">
         <v>271</v>
       </c>
@@ -11122,7 +11135,7 @@
       </c>
       <c r="N182" s="96"/>
     </row>
-    <row r="183" spans="2:17" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:17" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C183" s="54"/>
       <c r="D183" s="25">
         <v>1000</v>
@@ -11139,7 +11152,7 @@
       </c>
       <c r="N183" s="96"/>
     </row>
-    <row r="184" spans="2:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B184" s="82" t="s">
         <v>170</v>
       </c>
@@ -11184,7 +11197,7 @@
       </c>
       <c r="N184" s="96"/>
     </row>
-    <row r="185" spans="2:17" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:17" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B185" s="25" t="s">
         <v>171</v>
       </c>
@@ -11232,7 +11245,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="186" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B186" s="51" t="s">
         <v>147</v>
       </c>
@@ -11277,7 +11290,7 @@
       </c>
       <c r="N186" s="96"/>
     </row>
-    <row r="187" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B187" s="5" t="s">
         <v>148</v>
       </c>
@@ -11322,7 +11335,7 @@
       </c>
       <c r="N187" s="96"/>
     </row>
-    <row r="188" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>150</v>
       </c>
@@ -11367,7 +11380,7 @@
       </c>
       <c r="N188" s="96"/>
     </row>
-    <row r="189" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>152</v>
       </c>
@@ -11412,7 +11425,7 @@
       </c>
       <c r="N189" s="96"/>
     </row>
-    <row r="190" spans="2:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B190" s="82" t="s">
         <v>159</v>
       </c>
@@ -11457,7 +11470,7 @@
       </c>
       <c r="N190" s="96"/>
     </row>
-    <row r="191" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B191" s="15" t="s">
         <v>160</v>
       </c>
@@ -11502,7 +11515,7 @@
       </c>
       <c r="N191" s="96"/>
     </row>
-    <row r="192" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B192" s="15" t="s">
         <v>166</v>
       </c>
@@ -11547,7 +11560,7 @@
       </c>
       <c r="N192" s="96"/>
     </row>
-    <row r="193" spans="2:17" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:17" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B193" s="25" t="s">
         <v>266</v>
       </c>
@@ -11592,7 +11605,7 @@
       </c>
       <c r="N193" s="96"/>
     </row>
-    <row r="194" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>167</v>
       </c>
@@ -11637,7 +11650,7 @@
       </c>
       <c r="N194" s="96"/>
     </row>
-    <row r="195" spans="2:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B195" s="20" t="s">
         <v>169</v>
       </c>
@@ -11682,7 +11695,7 @@
       </c>
       <c r="N195" s="96"/>
     </row>
-    <row r="196" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>184</v>
       </c>
@@ -11727,7 +11740,7 @@
       </c>
       <c r="N196" s="96"/>
     </row>
-    <row r="197" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B197" s="15" t="s">
         <v>377</v>
       </c>
@@ -11772,21 +11785,21 @@
       </c>
       <c r="N197" s="96"/>
     </row>
-    <row r="198" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:17" x14ac:dyDescent="0.2">
       <c r="M198" s="96">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N198" s="96"/>
     </row>
-    <row r="199" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:17" x14ac:dyDescent="0.2">
       <c r="M199" s="96">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N199" s="96"/>
     </row>
-    <row r="200" spans="2:17" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:17" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B200" s="70" t="s">
         <v>193</v>
       </c>
@@ -11800,7 +11813,7 @@
       </c>
       <c r="N200" s="96"/>
     </row>
-    <row r="201" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>0</v>
       </c>
@@ -11843,7 +11856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="2:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:17" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B202" s="38" t="s">
         <v>250</v>
       </c>
@@ -11888,7 +11901,7 @@
       </c>
       <c r="N202" s="96"/>
     </row>
-    <row r="203" spans="2:17" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:17" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B203" s="60" t="s">
         <v>251</v>
       </c>
@@ -11933,7 +11946,7 @@
       </c>
       <c r="N203" s="96"/>
     </row>
-    <row r="204" spans="2:17" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:17" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B204" s="60" t="s">
         <v>252</v>
       </c>
@@ -11978,7 +11991,7 @@
       </c>
       <c r="N204" s="96"/>
     </row>
-    <row r="205" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B205" s="10" t="s">
         <v>288</v>
       </c>
@@ -12025,7 +12038,7 @@
       <c r="O205" s="60"/>
       <c r="P205" s="60"/>
     </row>
-    <row r="206" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>290</v>
       </c>
@@ -12050,7 +12063,7 @@
       </c>
       <c r="N206" s="96"/>
     </row>
-    <row r="207" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C207" s="11"/>
       <c r="D207" s="38">
         <v>1000</v>
@@ -12088,7 +12101,7 @@
       <c r="O207" s="60"/>
       <c r="P207" s="60"/>
     </row>
-    <row r="208" spans="2:17" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:17" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B208" s="60" t="s">
         <v>253</v>
       </c>
@@ -12133,7 +12146,7 @@
       </c>
       <c r="N208" s="96"/>
     </row>
-    <row r="209" spans="2:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:16" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B209" s="38" t="s">
         <v>254</v>
       </c>
@@ -12178,7 +12191,7 @@
       </c>
       <c r="N209" s="96"/>
     </row>
-    <row r="210" spans="2:16" s="59" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:16" s="59" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B210" s="59" t="s">
         <v>213</v>
       </c>
@@ -12225,7 +12238,7 @@
       <c r="O210" s="38"/>
       <c r="P210" s="38"/>
     </row>
-    <row r="211" spans="2:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:16" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B211" s="38" t="s">
         <v>255</v>
       </c>
@@ -12270,7 +12283,7 @@
       </c>
       <c r="N211" s="96"/>
     </row>
-    <row r="212" spans="2:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:16" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B212" s="38" t="s">
         <v>256</v>
       </c>
@@ -12315,7 +12328,7 @@
       </c>
       <c r="N212" s="96"/>
     </row>
-    <row r="213" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B213" s="10" t="s">
         <v>257</v>
       </c>
@@ -12360,7 +12373,7 @@
       </c>
       <c r="N213" s="96"/>
     </row>
-    <row r="214" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B214" s="10" t="s">
         <v>258</v>
       </c>
@@ -12405,7 +12418,7 @@
       </c>
       <c r="N214" s="96"/>
     </row>
-    <row r="215" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B215" s="33" t="s">
         <v>211</v>
       </c>
@@ -12450,7 +12463,7 @@
       </c>
       <c r="N215" s="96"/>
     </row>
-    <row r="216" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B216" s="33" t="s">
         <v>216</v>
       </c>
@@ -12495,7 +12508,7 @@
       </c>
       <c r="N216" s="96"/>
     </row>
-    <row r="217" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B217" s="33" t="s">
         <v>132</v>
       </c>
@@ -12540,7 +12553,7 @@
       </c>
       <c r="N217" s="96"/>
     </row>
-    <row r="218" spans="2:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:16" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C218" s="54"/>
       <c r="D218" s="38">
         <v>1000</v>
@@ -12557,7 +12570,7 @@
       </c>
       <c r="N218" s="96"/>
     </row>
-    <row r="219" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B219" s="33" t="s">
         <v>210</v>
       </c>
@@ -12602,7 +12615,7 @@
       </c>
       <c r="N219" s="96"/>
     </row>
-    <row r="220" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B220" s="33" t="s">
         <v>194</v>
       </c>
@@ -12647,7 +12660,7 @@
       </c>
       <c r="N220" s="96"/>
     </row>
-    <row r="221" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B221" s="33" t="s">
         <v>195</v>
       </c>
@@ -12692,7 +12705,7 @@
       </c>
       <c r="N221" s="96"/>
     </row>
-    <row r="222" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B222" s="10" t="s">
         <v>196</v>
       </c>
@@ -12737,7 +12750,7 @@
       </c>
       <c r="N222" s="96"/>
     </row>
-    <row r="223" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B223" s="10" t="s">
         <v>197</v>
       </c>
@@ -12782,7 +12795,7 @@
       </c>
       <c r="N223" s="96"/>
     </row>
-    <row r="224" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B224" s="10" t="s">
         <v>198</v>
       </c>
@@ -12827,7 +12840,7 @@
       </c>
       <c r="N224" s="96"/>
     </row>
-    <row r="225" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B225" s="52" t="s">
         <v>199</v>
       </c>
@@ -12872,7 +12885,7 @@
       </c>
       <c r="N225" s="96"/>
     </row>
-    <row r="226" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
         <v>200</v>
       </c>
@@ -12917,7 +12930,7 @@
       </c>
       <c r="N226" s="96"/>
     </row>
-    <row r="227" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B227" s="38" t="s">
         <v>201</v>
       </c>
@@ -12962,7 +12975,7 @@
       </c>
       <c r="N227" s="96"/>
     </row>
-    <row r="228" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B228" s="10" t="s">
         <v>202</v>
       </c>
@@ -13007,7 +13020,7 @@
       </c>
       <c r="N228" s="96"/>
     </row>
-    <row r="229" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B229" s="33" t="s">
         <v>203</v>
       </c>
@@ -13052,7 +13065,7 @@
       </c>
       <c r="N229" s="96"/>
     </row>
-    <row r="230" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B230" s="33" t="s">
         <v>204</v>
       </c>
@@ -13097,7 +13110,7 @@
       </c>
       <c r="N230" s="96"/>
     </row>
-    <row r="231" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B231" s="33" t="s">
         <v>205</v>
       </c>
@@ -13142,7 +13155,7 @@
       </c>
       <c r="N231" s="96"/>
     </row>
-    <row r="232" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B232" s="33" t="s">
         <v>206</v>
       </c>
@@ -13187,7 +13200,7 @@
       </c>
       <c r="N232" s="96"/>
     </row>
-    <row r="233" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B233" s="33" t="s">
         <v>207</v>
       </c>
@@ -13232,7 +13245,7 @@
       </c>
       <c r="N233" s="96"/>
     </row>
-    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
         <v>208</v>
       </c>
@@ -13277,7 +13290,7 @@
       </c>
       <c r="N234" s="96"/>
     </row>
-    <row r="235" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
         <v>209</v>
       </c>
@@ -13322,7 +13335,7 @@
       </c>
       <c r="N235" s="96"/>
     </row>
-    <row r="236" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B236" s="33" t="s">
         <v>212</v>
       </c>
@@ -13367,7 +13380,7 @@
       </c>
       <c r="N236" s="96"/>
     </row>
-    <row r="237" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:14" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B237" s="38" t="s">
         <v>340</v>
       </c>
@@ -13412,7 +13425,7 @@
       </c>
       <c r="N237" s="96"/>
     </row>
-    <row r="238" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
         <v>214</v>
       </c>
@@ -13457,7 +13470,7 @@
       </c>
       <c r="N238" s="96"/>
     </row>
-    <row r="239" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B239" s="15" t="s">
         <v>215</v>
       </c>
@@ -13502,7 +13515,7 @@
       </c>
       <c r="N239" s="96"/>
     </row>
-    <row r="240" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B240" s="15" t="s">
         <v>403</v>
       </c>
@@ -13542,7 +13555,7 @@
       <c r="M240" s="96"/>
       <c r="N240" s="96"/>
     </row>
-    <row r="241" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B241" s="15" t="s">
         <v>404</v>
       </c>
@@ -13582,7 +13595,7 @@
       <c r="M241" s="96"/>
       <c r="N241" s="96"/>
     </row>
-    <row r="242" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B242" s="15" t="s">
         <v>405</v>
       </c>
@@ -13624,7 +13637,7 @@
       <c r="M242" s="96"/>
       <c r="N242" s="96"/>
     </row>
-    <row r="243" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B243" s="15" t="s">
         <v>406</v>
       </c>
@@ -13664,7 +13677,7 @@
       <c r="M243" s="96"/>
       <c r="N243" s="96"/>
     </row>
-    <row r="244" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B244" s="15" t="s">
         <v>407</v>
       </c>
@@ -13704,7 +13717,7 @@
       <c r="M244" s="96"/>
       <c r="N244" s="96"/>
     </row>
-    <row r="245" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B245" s="15" t="s">
         <v>408</v>
       </c>
@@ -13746,7 +13759,7 @@
       <c r="M245" s="96"/>
       <c r="N245" s="96"/>
     </row>
-    <row r="246" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B246" s="15" t="s">
         <v>409</v>
       </c>
@@ -13786,7 +13799,7 @@
       <c r="M246" s="96"/>
       <c r="N246" s="96"/>
     </row>
-    <row r="247" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B247" s="15" t="s">
         <v>411</v>
       </c>
@@ -13828,7 +13841,7 @@
       <c r="M247" s="96"/>
       <c r="N247" s="96"/>
     </row>
-    <row r="248" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B248" s="15" t="s">
         <v>422</v>
       </c>
@@ -13870,7 +13883,7 @@
       <c r="M248" s="96"/>
       <c r="N248" s="96"/>
     </row>
-    <row r="249" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B249" s="15" t="s">
         <v>423</v>
       </c>
@@ -13912,7 +13925,7 @@
       <c r="M249" s="96"/>
       <c r="N249" s="96"/>
     </row>
-    <row r="250" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B250" s="15" t="s">
         <v>424</v>
       </c>
@@ -13954,7 +13967,7 @@
       <c r="M250" s="96"/>
       <c r="N250" s="96"/>
     </row>
-    <row r="251" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C251" s="16"/>
       <c r="D251" s="38">
         <v>1000</v>
@@ -13987,7 +14000,7 @@
       <c r="M251" s="96"/>
       <c r="N251" s="96"/>
     </row>
-    <row r="252" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C252" s="16"/>
       <c r="D252" s="38">
         <v>1000</v>
@@ -14020,7 +14033,7 @@
       <c r="M252" s="96"/>
       <c r="N252" s="96"/>
     </row>
-    <row r="253" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C253" s="16"/>
       <c r="D253" s="38"/>
       <c r="E253" s="38"/>
@@ -14030,7 +14043,7 @@
       <c r="M253" s="96"/>
       <c r="N253" s="96"/>
     </row>
-    <row r="254" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C254" s="16"/>
       <c r="D254" s="38"/>
       <c r="E254" s="38"/>
@@ -14040,14 +14053,14 @@
       <c r="M254" s="96"/>
       <c r="N254" s="96"/>
     </row>
-    <row r="255" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:14" x14ac:dyDescent="0.2">
       <c r="M255" s="96">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N255" s="96"/>
     </row>
-    <row r="256" spans="2:14" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:14" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C256" s="71"/>
       <c r="H256" s="72"/>
       <c r="I256" s="73"/>
@@ -14058,7 +14071,7 @@
       </c>
       <c r="N256" s="96"/>
     </row>
-    <row r="257" spans="2:17" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:17" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B257" s="70" t="s">
         <v>236</v>
       </c>
@@ -14072,7 +14085,7 @@
       </c>
       <c r="N257" s="96"/>
     </row>
-    <row r="258" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
         <v>0</v>
       </c>
@@ -14115,7 +14128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B259" s="33" t="s">
         <v>248</v>
       </c>
@@ -14160,7 +14173,7 @@
       </c>
       <c r="N259" s="96"/>
     </row>
-    <row r="260" spans="2:17" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:17" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B260" s="65" t="s">
         <v>239</v>
       </c>
@@ -14205,7 +14218,7 @@
       </c>
       <c r="N260" s="96"/>
     </row>
-    <row r="261" spans="2:17" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:17" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B261" s="65" t="s">
         <v>222</v>
       </c>
@@ -14250,7 +14263,7 @@
       </c>
       <c r="N261" s="96"/>
     </row>
-    <row r="262" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B262" s="33" t="s">
         <v>281</v>
       </c>
@@ -14295,7 +14308,7 @@
       </c>
       <c r="N262" s="96"/>
     </row>
-    <row r="263" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B263" s="10" t="s">
         <v>282</v>
       </c>
@@ -14340,7 +14353,7 @@
       </c>
       <c r="N263" s="96"/>
     </row>
-    <row r="264" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B264" s="10" t="s">
         <v>283</v>
       </c>
@@ -14385,7 +14398,7 @@
       </c>
       <c r="N264" s="96"/>
     </row>
-    <row r="265" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B265" s="33" t="s">
         <v>121</v>
       </c>
@@ -14430,7 +14443,7 @@
       </c>
       <c r="N265" s="96"/>
     </row>
-    <row r="266" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
         <v>117</v>
       </c>
@@ -14477,7 +14490,7 @@
       <c r="O266" s="10"/>
       <c r="P266" s="10"/>
     </row>
-    <row r="267" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B267" s="10" t="s">
         <v>284</v>
       </c>
@@ -14522,7 +14535,7 @@
       </c>
       <c r="N267" s="96"/>
     </row>
-    <row r="268" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B268" s="10" t="s">
         <v>280</v>
       </c>
@@ -14567,7 +14580,7 @@
       </c>
       <c r="N268" s="96"/>
     </row>
-    <row r="269" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B269" s="10" t="s">
         <v>285</v>
       </c>
@@ -14612,7 +14625,7 @@
       </c>
       <c r="N269" s="96"/>
     </row>
-    <row r="270" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B270" s="33" t="s">
         <v>286</v>
       </c>
@@ -14657,7 +14670,7 @@
       </c>
       <c r="N270" s="96"/>
     </row>
-    <row r="271" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B271" s="10" t="s">
         <v>287</v>
       </c>
@@ -14702,7 +14715,7 @@
       </c>
       <c r="N271" s="96"/>
     </row>
-    <row r="272" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B272" s="10" t="s">
         <v>328</v>
       </c>
@@ -14747,7 +14760,7 @@
       </c>
       <c r="N272" s="96"/>
     </row>
-    <row r="273" spans="2:16" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:16" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B273" s="60" t="s">
         <v>242</v>
       </c>
@@ -14792,7 +14805,7 @@
       </c>
       <c r="N273" s="96"/>
     </row>
-    <row r="274" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B274" s="33" t="s">
         <v>243</v>
       </c>
@@ -14837,7 +14850,7 @@
       </c>
       <c r="N274" s="96"/>
     </row>
-    <row r="275" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B275" s="10" t="s">
         <v>244</v>
       </c>
@@ -14882,7 +14895,7 @@
       </c>
       <c r="N275" s="96"/>
     </row>
-    <row r="276" spans="2:16" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:16" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B276" s="65" t="s">
         <v>237</v>
       </c>
@@ -14927,7 +14940,7 @@
       </c>
       <c r="N276" s="96"/>
     </row>
-    <row r="277" spans="2:16" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:16" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B277" s="65" t="s">
         <v>240</v>
       </c>
@@ -14972,7 +14985,7 @@
       </c>
       <c r="N277" s="96"/>
     </row>
-    <row r="278" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B278" s="33" t="s">
         <v>245</v>
       </c>
@@ -15017,7 +15030,7 @@
       </c>
       <c r="N278" s="96"/>
     </row>
-    <row r="279" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B279" s="33" t="s">
         <v>246</v>
       </c>
@@ -15062,7 +15075,7 @@
       </c>
       <c r="N279" s="96"/>
     </row>
-    <row r="280" spans="2:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:16" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B280" s="38" t="s">
         <v>247</v>
       </c>
@@ -15107,7 +15120,7 @@
       </c>
       <c r="N280" s="96"/>
     </row>
-    <row r="281" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B281" s="33" t="s">
         <v>142</v>
       </c>
@@ -15152,7 +15165,7 @@
       </c>
       <c r="N281" s="96"/>
     </row>
-    <row r="282" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B282" s="33" t="s">
         <v>249</v>
       </c>
@@ -15197,7 +15210,7 @@
       </c>
       <c r="N282" s="96"/>
     </row>
-    <row r="283" spans="2:16" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:16" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C283" s="54"/>
       <c r="F283" s="33" t="e">
         <f>D273:D338/C273:C338</f>
@@ -15212,7 +15225,7 @@
       </c>
       <c r="N283" s="96"/>
     </row>
-    <row r="284" spans="2:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:16" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B284" s="38" t="s">
         <v>241</v>
       </c>
@@ -15257,7 +15270,7 @@
       </c>
       <c r="N284" s="96"/>
     </row>
-    <row r="285" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:16" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B285" s="33" t="s">
         <v>140</v>
       </c>
@@ -15302,7 +15315,7 @@
       </c>
       <c r="N285" s="96"/>
     </row>
-    <row r="286" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B286" s="33" t="s">
         <v>278</v>
       </c>
@@ -15349,7 +15362,7 @@
       <c r="O286" s="33"/>
       <c r="P286" s="33"/>
     </row>
-    <row r="287" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B287" s="33" t="s">
         <v>279</v>
       </c>
@@ -15396,7 +15409,7 @@
       <c r="O287" s="33"/>
       <c r="P287" s="33"/>
     </row>
-    <row r="288" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C288" s="11"/>
       <c r="H288" s="12"/>
       <c r="I288" s="13"/>
@@ -15407,7 +15420,7 @@
       </c>
       <c r="N288" s="96"/>
     </row>
-    <row r="289" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B289" s="33" t="s">
         <v>302</v>
       </c>
@@ -15454,7 +15467,7 @@
       <c r="O289" s="33"/>
       <c r="P289" s="33"/>
     </row>
-    <row r="290" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B290" s="33" t="s">
         <v>318</v>
       </c>
@@ -15501,7 +15514,7 @@
       <c r="O290" s="33"/>
       <c r="P290" s="33"/>
     </row>
-    <row r="291" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B291" s="33" t="s">
         <v>303</v>
       </c>
@@ -15548,7 +15561,7 @@
       <c r="O291" s="33"/>
       <c r="P291" s="33"/>
     </row>
-    <row r="292" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B292" s="33" t="s">
         <v>304</v>
       </c>
@@ -15595,7 +15608,7 @@
       <c r="O292" s="33"/>
       <c r="P292" s="33"/>
     </row>
-    <row r="293" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B293" s="33" t="s">
         <v>305</v>
       </c>
@@ -15642,7 +15655,7 @@
       <c r="O293" s="33"/>
       <c r="P293" s="33"/>
     </row>
-    <row r="294" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B294" s="33" t="s">
         <v>306</v>
       </c>
@@ -15689,7 +15702,7 @@
       <c r="O294" s="33"/>
       <c r="P294" s="33"/>
     </row>
-    <row r="295" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B295" s="33" t="s">
         <v>307</v>
       </c>
@@ -15736,7 +15749,7 @@
       <c r="O295" s="33"/>
       <c r="P295" s="33"/>
     </row>
-    <row r="296" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B296" s="33" t="s">
         <v>308</v>
       </c>
@@ -15783,7 +15796,7 @@
       <c r="O296" s="33"/>
       <c r="P296" s="33"/>
     </row>
-    <row r="297" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B297" s="33" t="s">
         <v>309</v>
       </c>
@@ -15830,7 +15843,7 @@
       <c r="O297" s="33"/>
       <c r="P297" s="33"/>
     </row>
-    <row r="298" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B298" s="33" t="s">
         <v>310</v>
       </c>
@@ -15877,7 +15890,7 @@
       <c r="O298" s="33"/>
       <c r="P298" s="33"/>
     </row>
-    <row r="299" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B299" s="33" t="s">
         <v>311</v>
       </c>
@@ -15924,7 +15937,7 @@
       <c r="O299" s="33"/>
       <c r="P299" s="33"/>
     </row>
-    <row r="300" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B300" s="33" t="s">
         <v>312</v>
       </c>
@@ -15971,7 +15984,7 @@
       <c r="O300" s="33"/>
       <c r="P300" s="33"/>
     </row>
-    <row r="301" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B301" s="33" t="s">
         <v>313</v>
       </c>
@@ -16018,7 +16031,7 @@
       <c r="O301" s="33"/>
       <c r="P301" s="33"/>
     </row>
-    <row r="302" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B302" s="33" t="s">
         <v>314</v>
       </c>
@@ -16065,7 +16078,7 @@
       <c r="O302" s="33"/>
       <c r="P302" s="33"/>
     </row>
-    <row r="303" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B303" s="33" t="s">
         <v>315</v>
       </c>
@@ -16112,7 +16125,7 @@
       <c r="O303" s="33"/>
       <c r="P303" s="33"/>
     </row>
-    <row r="304" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:16" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B304" s="33" t="s">
         <v>316</v>
       </c>
@@ -16159,7 +16172,7 @@
       <c r="O304" s="33"/>
       <c r="P304" s="33"/>
     </row>
-    <row r="305" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B305" s="33" t="s">
         <v>317</v>
       </c>
@@ -16206,7 +16219,7 @@
       <c r="O305" s="33"/>
       <c r="P305" s="33"/>
     </row>
-    <row r="306" spans="2:17" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:17" s="70" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B306" s="70" t="s">
         <v>292</v>
       </c>
@@ -16220,7 +16233,7 @@
       </c>
       <c r="N306" s="96"/>
     </row>
-    <row r="307" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
         <v>0</v>
       </c>
@@ -16263,7 +16276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B308" s="33" t="s">
         <v>224</v>
       </c>
@@ -16308,7 +16321,7 @@
       </c>
       <c r="N308" s="96"/>
     </row>
-    <row r="309" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B309" s="10" t="s">
         <v>294</v>
       </c>
@@ -16353,7 +16366,7 @@
       </c>
       <c r="N309" s="96"/>
     </row>
-    <row r="310" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B310" s="33" t="s">
         <v>289</v>
       </c>
@@ -16398,7 +16411,7 @@
       </c>
       <c r="N310" s="96"/>
     </row>
-    <row r="311" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B311" s="33" t="s">
         <v>295</v>
       </c>
@@ -16443,7 +16456,7 @@
       </c>
       <c r="N311" s="96"/>
     </row>
-    <row r="312" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B312" s="10" t="s">
         <v>291</v>
       </c>
@@ -16488,7 +16501,7 @@
       </c>
       <c r="N312" s="96"/>
     </row>
-    <row r="313" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B313" s="33" t="s">
         <v>293</v>
       </c>
@@ -16533,7 +16546,7 @@
       </c>
       <c r="N313" s="96"/>
     </row>
-    <row r="314" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B314" s="10" t="s">
         <v>296</v>
       </c>
@@ -16578,7 +16591,7 @@
       </c>
       <c r="N314" s="96"/>
     </row>
-    <row r="315" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B315" s="10" t="s">
         <v>297</v>
       </c>
@@ -16623,7 +16636,7 @@
       </c>
       <c r="N315" s="96"/>
     </row>
-    <row r="316" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B316" s="33" t="s">
         <v>298</v>
       </c>
@@ -16668,7 +16681,7 @@
       </c>
       <c r="N316" s="96"/>
     </row>
-    <row r="317" spans="2:17" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:17" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B317" s="60" t="s">
         <v>299</v>
       </c>
@@ -16713,7 +16726,7 @@
       </c>
       <c r="N317" s="96"/>
     </row>
-    <row r="318" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B318" s="33" t="s">
         <v>300</v>
       </c>
@@ -16758,7 +16771,7 @@
       </c>
       <c r="N318" s="96"/>
     </row>
-    <row r="319" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B319" s="10" t="s">
         <v>301</v>
       </c>
@@ -16803,7 +16816,7 @@
       </c>
       <c r="N319" s="96"/>
     </row>
-    <row r="320" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F320" s="10" t="e">
         <f t="shared" si="60"/>
         <v>#DIV/0!</v>
@@ -16832,7 +16845,7 @@
       <c r="O320" s="10"/>
       <c r="P320" s="10"/>
     </row>
-    <row r="321" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
         <v>334</v>
       </c>
@@ -16864,7 +16877,7 @@
       <c r="O321" s="10"/>
       <c r="P321" s="10"/>
     </row>
-    <row r="322" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
         <v>335</v>
       </c>
@@ -16911,7 +16924,7 @@
       <c r="O322" s="10"/>
       <c r="P322" s="10"/>
     </row>
-    <row r="323" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:16" x14ac:dyDescent="0.2">
       <c r="F323" s="10" t="e">
         <f t="shared" si="60"/>
         <v>#DIV/0!</v>
@@ -16940,7 +16953,7 @@
       <c r="O323" s="10"/>
       <c r="P323" s="10"/>
     </row>
-    <row r="324" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
         <v>369</v>
       </c>
@@ -16972,7 +16985,7 @@
       <c r="O324" s="10"/>
       <c r="P324" s="10"/>
     </row>
-    <row r="325" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
         <v>364</v>
       </c>
@@ -17019,7 +17032,7 @@
       <c r="O325" s="10"/>
       <c r="P325" s="10"/>
     </row>
-    <row r="326" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
         <v>365</v>
       </c>
@@ -17066,7 +17079,7 @@
       <c r="O326" s="10"/>
       <c r="P326" s="10"/>
     </row>
-    <row r="327" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
         <v>366</v>
       </c>
@@ -17113,7 +17126,7 @@
       <c r="O327" s="10"/>
       <c r="P327" s="10"/>
     </row>
-    <row r="328" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
         <v>367</v>
       </c>
@@ -17160,7 +17173,7 @@
       <c r="O328" s="10"/>
       <c r="P328" s="10"/>
     </row>
-    <row r="329" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
         <v>368</v>
       </c>
@@ -17207,7 +17220,7 @@
       <c r="O329" s="10"/>
       <c r="P329" s="10"/>
     </row>
-    <row r="330" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
         <v>370</v>
       </c>
@@ -17254,7 +17267,7 @@
       <c r="O330" s="10"/>
       <c r="P330" s="10"/>
     </row>
-    <row r="331" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D331">
         <v>2500</v>
       </c>
@@ -17289,7 +17302,7 @@
       <c r="O331" s="10"/>
       <c r="P331" s="10"/>
     </row>
-    <row r="332" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D332">
         <v>2500</v>
       </c>
@@ -17324,7 +17337,7 @@
       <c r="O332" s="10"/>
       <c r="P332" s="10"/>
     </row>
-    <row r="333" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D333">
         <v>2500</v>
       </c>
@@ -17359,7 +17372,7 @@
       <c r="O333" s="10"/>
       <c r="P333" s="10"/>
     </row>
-    <row r="334" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D334">
         <v>2500</v>
       </c>
@@ -17394,7 +17407,7 @@
       <c r="O334" s="10"/>
       <c r="P334" s="10"/>
     </row>
-    <row r="335" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D335">
         <v>2500</v>
       </c>
@@ -17429,7 +17442,7 @@
       <c r="O335" s="10"/>
       <c r="P335" s="10"/>
     </row>
-    <row r="336" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D336">
         <v>2500</v>
       </c>
@@ -17464,7 +17477,7 @@
       <c r="O336" s="10"/>
       <c r="P336" s="10"/>
     </row>
-    <row r="337" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
         <v>382</v>
       </c>
@@ -17502,7 +17515,7 @@
       <c r="O337" s="10"/>
       <c r="P337" s="10"/>
     </row>
-    <row r="338" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
         <v>383</v>
       </c>
@@ -17553,7 +17566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="339" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
         <v>384</v>
       </c>
@@ -17604,7 +17617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B340" t="s">
         <v>385</v>
       </c>
@@ -17651,7 +17664,7 @@
       <c r="O340" s="10"/>
       <c r="P340" s="10"/>
     </row>
-    <row r="341" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B341" t="s">
         <v>386</v>
       </c>
@@ -17705,33 +17718,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB462"/>
   <sheetViews>
-    <sheetView topLeftCell="A451" workbookViewId="0">
-      <selection activeCell="B463" sqref="B463"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="78"/>
-    <col min="6" max="6" width="11.42578125" style="31"/>
-    <col min="8" max="8" width="11.42578125" style="1"/>
-    <col min="9" max="9" width="11.42578125" style="2"/>
-    <col min="11" max="11" width="11.42578125" style="3"/>
-    <col min="13" max="13" width="11.42578125" style="104"/>
-    <col min="14" max="14" width="11.42578125" style="32"/>
-    <col min="16" max="16" width="11.42578125" style="3"/>
-    <col min="19" max="19" width="11.42578125" style="85"/>
-    <col min="20" max="20" width="11.42578125" style="15"/>
-    <col min="21" max="21" width="11.42578125" style="76"/>
-    <col min="22" max="22" width="11.42578125" style="48"/>
-    <col min="23" max="23" width="11.42578125" style="38"/>
-    <col min="24" max="24" width="11.85546875" style="75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="78"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="31"/>
+    <col min="8" max="8" width="11.5" style="1"/>
+    <col min="9" max="9" width="11.5" style="2"/>
+    <col min="11" max="11" width="11.5" style="3"/>
+    <col min="13" max="13" width="11.5" style="104"/>
+    <col min="14" max="14" width="11.5" style="32"/>
+    <col min="16" max="16" width="11.5" style="3"/>
+    <col min="19" max="19" width="11.5" style="85"/>
+    <col min="20" max="20" width="11.5" style="15"/>
+    <col min="21" max="21" width="11.5" style="76"/>
+    <col min="22" max="22" width="11.5" style="48"/>
+    <col min="23" max="23" width="11.5" style="38"/>
+    <col min="24" max="24" width="11.83203125" style="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>374</v>
       </c>
@@ -17799,7 +17813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>16</v>
       </c>
@@ -17879,7 +17893,7 @@
         <v>14.891416666666668</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>17</v>
       </c>
@@ -17959,7 +17973,7 @@
         <v>44.40141666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
         <v>17</v>
       </c>
@@ -18039,7 +18053,7 @@
         <v>19.401416666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
@@ -18119,7 +18133,7 @@
         <v>28.625708333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
         <v>380</v>
       </c>
@@ -18199,7 +18213,7 @@
         <v>75.729166666666657</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>678</v>
       </c>
@@ -18279,7 +18293,7 @@
         <v>-104.27083333333334</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
         <v>14</v>
       </c>
@@ -18359,7 +18373,7 @@
         <v>84.309916666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
@@ -18439,7 +18453,7 @@
         <v>66.866833333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
         <v>9</v>
       </c>
@@ -18522,7 +18536,7 @@
         <v>6.8668333333333322</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>593</v>
       </c>
@@ -18608,7 +18622,7 @@
         <v>23.966999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
         <v>36</v>
       </c>
@@ -18683,7 +18697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
         <v>347</v>
       </c>
@@ -18763,7 +18777,7 @@
         <v>100.71966666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>417</v>
       </c>
@@ -18846,7 +18860,7 @@
         <v>23.828333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>417</v>
       </c>
@@ -18929,7 +18943,7 @@
         <v>38.828333333333333</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>418</v>
       </c>
@@ -19012,7 +19026,7 @@
         <v>28.828333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="111" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" s="111" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="111" t="s">
         <v>419</v>
       </c>
@@ -19093,7 +19107,7 @@
         <v>-36.171666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>420</v>
       </c>
@@ -19176,7 +19190,7 @@
         <v>38.828333333333333</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>421</v>
       </c>
@@ -19259,7 +19273,7 @@
         <v>28.828333333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
         <v>20</v>
       </c>
@@ -19339,7 +19353,7 @@
         <v>4.8842499999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>594</v>
       </c>
@@ -19422,7 +19436,7 @@
         <v>18.941416666666669</v>
       </c>
     </row>
-    <row r="22" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>543</v>
       </c>
@@ -19502,7 +19516,7 @@
         <v>16.384250000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="15" t="s">
         <v>269</v>
       </c>
@@ -19585,7 +19599,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="24" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="15" t="s">
         <v>269</v>
       </c>
@@ -19671,7 +19685,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="15" t="s">
         <v>34</v>
       </c>
@@ -19751,7 +19765,7 @@
         <v>83.498416666666657</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="15" t="s">
         <v>92</v>
       </c>
@@ -19831,7 +19845,7 @@
         <v>25.012833333333333</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="15" t="s">
         <v>93</v>
       </c>
@@ -19911,7 +19925,7 @@
         <v>24.802833333333332</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="15" t="s">
         <v>94</v>
       </c>
@@ -19991,7 +20005,7 @@
         <v>6.5414166666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="15" t="s">
         <v>33</v>
       </c>
@@ -20071,7 +20085,7 @@
         <v>25.30275</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>543</v>
       </c>
@@ -20151,7 +20165,7 @@
         <v>19.657083333333333</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>543</v>
       </c>
@@ -20231,7 +20245,7 @@
         <v>4.6570833333333326</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="15" t="s">
         <v>363</v>
       </c>
@@ -20314,7 +20328,7 @@
         <v>97.169666666666672</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>417</v>
       </c>
@@ -20401,7 +20415,7 @@
         <v>107.27116666666666</v>
       </c>
     </row>
-    <row r="34" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>507</v>
       </c>
@@ -20481,7 +20495,7 @@
         <v>57.271166666666666</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>419</v>
       </c>
@@ -20567,7 +20581,7 @@
         <v>87.271166666666659</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>459</v>
       </c>
@@ -20646,7 +20660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="Q37">
         <f>R12</f>
         <v>1285</v>
@@ -20664,7 +20678,7 @@
         <v>1206.5633750000002</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>375</v>
       </c>
@@ -20675,7 +20689,7 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>820</v>
       </c>
       <c r="E38" t="s">
         <v>47</v>
@@ -20735,7 +20749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>324</v>
       </c>
@@ -20819,7 +20833,7 @@
         <v>92.772639999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>327</v>
       </c>
@@ -20900,7 +20914,7 @@
         <v>-5.9074800000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>325</v>
       </c>
@@ -20978,7 +20992,7 @@
         <v>-5.9074800000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>322</v>
       </c>
@@ -21041,7 +21055,7 @@
         <v>78.404480000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>321</v>
       </c>
@@ -21104,7 +21118,7 @@
         <v>65.566320000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>321</v>
       </c>
@@ -21179,7 +21193,7 @@
         <v>65.566320000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>329</v>
       </c>
@@ -21242,7 +21256,7 @@
         <v>70.942400000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
         <v>331</v>
       </c>
@@ -21305,7 +21319,7 @@
         <v>28.654799999999994</v>
       </c>
     </row>
-    <row r="47" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>332</v>
       </c>
@@ -21368,7 +21382,7 @@
         <v>28.654799999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>338</v>
       </c>
@@ -21431,7 +21445,7 @@
         <v>15.866199999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
         <v>360</v>
       </c>
@@ -21494,7 +21508,7 @@
         <v>15.866199999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
         <v>360</v>
       </c>
@@ -21557,7 +21571,7 @@
         <v>15.866199999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
         <v>346</v>
       </c>
@@ -21618,7 +21632,7 @@
         <v>53.735399999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>350</v>
       </c>
@@ -21679,7 +21693,7 @@
         <v>53.735399999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
         <v>355</v>
       </c>
@@ -21740,7 +21754,7 @@
         <v>53.735399999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>358</v>
       </c>
@@ -21801,7 +21815,7 @@
         <v>65.53479999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
         <v>357</v>
       </c>
@@ -21862,7 +21876,7 @@
         <v>65.53479999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
         <v>356</v>
       </c>
@@ -21923,7 +21937,7 @@
         <v>65.53479999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
         <v>345</v>
       </c>
@@ -21984,7 +21998,7 @@
         <v>28.286200000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
         <v>341</v>
       </c>
@@ -22045,7 +22059,7 @@
         <v>11.51632</v>
       </c>
     </row>
-    <row r="59" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
         <v>343</v>
       </c>
@@ -22108,7 +22122,7 @@
         <v>22.930799999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
         <v>351</v>
       </c>
@@ -22169,7 +22183,7 @@
         <v>36.461599999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
         <v>352</v>
       </c>
@@ -22230,7 +22244,7 @@
         <v>36.681600000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
         <v>359</v>
       </c>
@@ -22291,7 +22305,7 @@
         <v>36.461599999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
         <v>353</v>
       </c>
@@ -22352,7 +22366,7 @@
         <v>64.721599999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
         <v>354</v>
       </c>
@@ -22413,7 +22427,7 @@
         <v>64.721599999999995</v>
       </c>
     </row>
-    <row r="65" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
         <v>321</v>
       </c>
@@ -22474,7 +22488,7 @@
         <v>19.40448</v>
       </c>
     </row>
-    <row r="66" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
         <v>321</v>
       </c>
@@ -22535,7 +22549,7 @@
         <v>20.444479999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
         <v>321</v>
       </c>
@@ -22596,7 +22610,7 @@
         <v>32.035399999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
         <v>321</v>
       </c>
@@ -22657,7 +22671,7 @@
         <v>87.981200000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>361</v>
       </c>
@@ -22718,7 +22732,7 @@
         <v>17.465399999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
         <v>361</v>
       </c>
@@ -22779,7 +22793,7 @@
         <v>35.090800000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B71" s="50"/>
       <c r="C71" s="1"/>
       <c r="D71" s="15">
@@ -22821,7 +22835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>323</v>
       </c>
@@ -22882,7 +22896,7 @@
         <v>-6.2184000000000008</v>
       </c>
     </row>
-    <row r="73" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>323</v>
       </c>
@@ -22943,7 +22957,7 @@
         <v>-6.2184000000000008</v>
       </c>
     </row>
-    <row r="74" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>323</v>
       </c>
@@ -23006,7 +23020,7 @@
         <v>-5.9074800000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
         <v>350</v>
       </c>
@@ -23069,7 +23083,7 @@
         <v>19.030799999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
         <v>507</v>
       </c>
@@ -23132,7 +23146,7 @@
         <v>14.030799999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
         <v>543</v>
       </c>
@@ -23195,7 +23209,7 @@
         <v>8.4962</v>
       </c>
     </row>
-    <row r="78" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="s">
         <v>543</v>
       </c>
@@ -23261,7 +23275,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="79" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
         <v>323</v>
       </c>
@@ -23329,7 +23343,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="80" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
         <v>655</v>
       </c>
@@ -23390,7 +23404,7 @@
         <v>36.681600000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
         <v>801</v>
       </c>
@@ -23452,7 +23466,7 @@
         <v>97.981200000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
         <v>323</v>
       </c>
@@ -23516,7 +23530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
         <v>330</v>
       </c>
@@ -23579,7 +23593,7 @@
         <v>63.787753200000004</v>
       </c>
     </row>
-    <row r="84" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
         <v>465</v>
       </c>
@@ -23642,7 +23656,7 @@
         <v>45.52816</v>
       </c>
     </row>
-    <row r="85" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
         <v>463</v>
       </c>
@@ -23705,7 +23719,7 @@
         <v>30.440799999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:24" s="87" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="87" t="s">
         <v>323</v>
       </c>
@@ -23763,7 +23777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
         <v>594</v>
       </c>
@@ -23826,7 +23840,7 @@
         <v>11.78908</v>
       </c>
     </row>
-    <row r="88" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
         <v>594</v>
       </c>
@@ -23889,7 +23903,7 @@
         <v>11.78908</v>
       </c>
     </row>
-    <row r="89" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
         <v>677</v>
       </c>
@@ -23952,7 +23966,7 @@
         <v>6.7890800000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
         <v>458</v>
       </c>
@@ -24015,7 +24029,7 @@
         <v>60.510399999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
         <v>464</v>
       </c>
@@ -24078,7 +24092,7 @@
         <v>60.44332</v>
       </c>
     </row>
-    <row r="92" spans="1:24" s="87" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="87" t="s">
         <v>323</v>
       </c>
@@ -24134,7 +24148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
         <v>572</v>
       </c>
@@ -24197,7 +24211,7 @@
         <v>84.361199999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
         <v>323</v>
       </c>
@@ -24260,7 +24274,7 @@
         <v>-65.638800000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
         <v>679</v>
       </c>
@@ -24323,7 +24337,7 @@
         <v>45.534799999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
         <v>414</v>
       </c>
@@ -24386,7 +24400,7 @@
         <v>65.364800000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
         <v>682</v>
       </c>
@@ -24449,7 +24463,7 @@
         <v>45.364800000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>323</v>
       </c>
@@ -24522,7 +24536,7 @@
         <v>-34.635199999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C99" s="16"/>
       <c r="F99" s="80"/>
       <c r="H99" s="16"/>
@@ -24554,7 +24568,7 @@
         <v>1932.8424732000005</v>
       </c>
     </row>
-    <row r="100" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C100" s="16"/>
       <c r="F100" s="80"/>
       <c r="H100" s="16"/>
@@ -24567,7 +24581,7 @@
       </c>
       <c r="S100" s="86"/>
     </row>
-    <row r="101" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C101" s="16"/>
       <c r="F101" s="80"/>
       <c r="H101" s="16"/>
@@ -24579,7 +24593,7 @@
       </c>
       <c r="S101" s="86"/>
     </row>
-    <row r="102" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C102" s="16"/>
       <c r="F102" s="80"/>
       <c r="H102" s="16"/>
@@ -24588,7 +24602,7 @@
       <c r="M102" s="105"/>
       <c r="S102" s="86"/>
     </row>
-    <row r="103" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C103" s="16"/>
       <c r="F103" s="80"/>
       <c r="H103" s="16"/>
@@ -24597,7 +24611,7 @@
       <c r="M103" s="105"/>
       <c r="S103" s="86"/>
     </row>
-    <row r="104" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C104" s="16"/>
       <c r="F104" s="80"/>
       <c r="H104" s="16"/>
@@ -24606,7 +24620,7 @@
       <c r="M104" s="105"/>
       <c r="S104" s="86"/>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>376</v>
       </c>
@@ -24674,7 +24688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="15" t="s">
         <v>372</v>
       </c>
@@ -24755,7 +24769,7 @@
         <v>73.41029087261785</v>
       </c>
     </row>
-    <row r="107" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="15" t="s">
         <v>378</v>
       </c>
@@ -24836,7 +24850,7 @@
         <v>11.287211634904715</v>
       </c>
     </row>
-    <row r="108" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
         <v>378</v>
       </c>
@@ -24917,7 +24931,7 @@
         <v>11.287211634904715</v>
       </c>
     </row>
-    <row r="109" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="15" t="s">
         <v>378</v>
       </c>
@@ -24991,7 +25005,7 @@
         <v>7.5616349047141433</v>
       </c>
     </row>
-    <row r="110" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
         <v>378</v>
       </c>
@@ -25054,7 +25068,7 @@
         <v>7.5616349047141433</v>
       </c>
     </row>
-    <row r="111" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
         <v>387</v>
       </c>
@@ -25117,7 +25131,7 @@
         <v>33.922116349047144</v>
       </c>
     </row>
-    <row r="112" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
         <v>387</v>
       </c>
@@ -25181,7 +25195,7 @@
         <v>27.361634904714144</v>
       </c>
     </row>
-    <row r="113" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
         <v>387</v>
       </c>
@@ -25245,7 +25259,7 @@
         <v>27.361634904714144</v>
       </c>
     </row>
-    <row r="114" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
         <v>387</v>
       </c>
@@ -25309,7 +25323,7 @@
         <v>27.361634904714144</v>
       </c>
     </row>
-    <row r="115" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
         <v>391</v>
       </c>
@@ -25372,7 +25386,7 @@
         <v>45.523961885656973</v>
       </c>
     </row>
-    <row r="116" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
         <v>392</v>
       </c>
@@ -25435,7 +25449,7 @@
         <v>13.01976930792377</v>
       </c>
     </row>
-    <row r="117" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
         <v>393</v>
       </c>
@@ -25498,7 +25512,7 @@
         <v>13.01976930792377</v>
       </c>
     </row>
-    <row r="118" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
         <v>394</v>
       </c>
@@ -25561,7 +25575,7 @@
         <v>11.547211634904714</v>
       </c>
     </row>
-    <row r="119" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
         <v>395</v>
       </c>
@@ -25624,7 +25638,7 @@
         <v>11.547211634904714</v>
       </c>
     </row>
-    <row r="120" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="15" t="s">
         <v>398</v>
       </c>
@@ -25687,7 +25701,7 @@
         <v>28.313269809428284</v>
       </c>
     </row>
-    <row r="121" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
         <v>432</v>
       </c>
@@ -25750,7 +25764,7 @@
         <v>101.64465396188565</v>
       </c>
     </row>
-    <row r="122" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="15" t="s">
         <v>412</v>
       </c>
@@ -25813,7 +25827,7 @@
         <v>14.782096288866599</v>
       </c>
     </row>
-    <row r="123" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="15" t="s">
         <v>413</v>
       </c>
@@ -25876,7 +25890,7 @@
         <v>14.782096288866599</v>
       </c>
     </row>
-    <row r="124" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="15" t="s">
         <v>413</v>
       </c>
@@ -25939,7 +25953,7 @@
         <v>15.812096288866599</v>
       </c>
     </row>
-    <row r="125" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="15" t="s">
         <v>414</v>
       </c>
@@ -26002,7 +26016,7 @@
         <v>14.334653961885657</v>
       </c>
     </row>
-    <row r="126" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
         <v>416</v>
       </c>
@@ -26067,7 +26081,7 @@
         <v>31.468375125376127</v>
       </c>
     </row>
-    <row r="127" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="15" t="s">
         <v>425</v>
       </c>
@@ -26130,7 +26144,7 @@
         <v>14.782096288866599</v>
       </c>
     </row>
-    <row r="128" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
         <v>426</v>
       </c>
@@ -26193,7 +26207,7 @@
         <v>75.137693079237721</v>
       </c>
     </row>
-    <row r="129" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
         <v>491</v>
       </c>
@@ -26256,7 +26270,7 @@
         <v>52.843269809428286</v>
       </c>
     </row>
-    <row r="130" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="15" t="s">
         <v>428</v>
       </c>
@@ -26321,7 +26335,7 @@
         <v>21.601634904714142</v>
       </c>
     </row>
-    <row r="131" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="15" t="s">
         <v>677</v>
       </c>
@@ -26384,7 +26398,7 @@
         <v>42.843269809428286</v>
       </c>
     </row>
-    <row r="132" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="15" t="s">
         <v>429</v>
       </c>
@@ -26448,7 +26462,7 @@
         <v>53.427211634904708</v>
       </c>
     </row>
-    <row r="133" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="15" t="s">
         <v>429</v>
       </c>
@@ -26513,7 +26527,7 @@
         <v>14.341634904714141</v>
       </c>
     </row>
-    <row r="134" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="15" t="s">
         <v>431</v>
       </c>
@@ -26576,7 +26590,7 @@
         <v>26.757211634904714</v>
       </c>
     </row>
-    <row r="135" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="15" t="s">
         <v>593</v>
       </c>
@@ -26641,7 +26655,7 @@
         <v>21.601634904714142</v>
       </c>
     </row>
-    <row r="136" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
         <v>649</v>
       </c>
@@ -26706,7 +26720,7 @@
         <v>14.341634904714141</v>
       </c>
     </row>
-    <row r="137" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
         <v>650</v>
       </c>
@@ -26771,7 +26785,7 @@
         <v>16.461634904714142</v>
       </c>
     </row>
-    <row r="138" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
         <v>651</v>
       </c>
@@ -26836,7 +26850,7 @@
         <v>16.461634904714142</v>
       </c>
     </row>
-    <row r="139" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="15" t="s">
         <v>491</v>
       </c>
@@ -26900,7 +26914,7 @@
         <v>53.427211634904708</v>
       </c>
     </row>
-    <row r="140" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="15" t="s">
         <v>321</v>
       </c>
@@ -26964,7 +26978,7 @@
         <v>53.427211634904708</v>
       </c>
     </row>
-    <row r="141" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="15" t="s">
         <v>433</v>
       </c>
@@ -27027,7 +27041,7 @@
         <v>14.782096288866599</v>
       </c>
     </row>
-    <row r="142" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="15" t="s">
         <v>433</v>
       </c>
@@ -27090,7 +27104,7 @@
         <v>17.004653961885658</v>
       </c>
     </row>
-    <row r="143" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="15" t="s">
         <v>453</v>
       </c>
@@ -27153,7 +27167,7 @@
         <v>14.782096288866599</v>
       </c>
     </row>
-    <row r="144" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="15" t="s">
         <v>492</v>
       </c>
@@ -27216,7 +27230,7 @@
         <v>14.782096288866599</v>
       </c>
     </row>
-    <row r="145" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="15" t="s">
         <v>483</v>
       </c>
@@ -27279,7 +27293,7 @@
         <v>14.782096288866599</v>
       </c>
     </row>
-    <row r="146" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="15" t="s">
         <v>493</v>
       </c>
@@ -27342,7 +27356,7 @@
         <v>9.8244232698094276</v>
       </c>
     </row>
-    <row r="147" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="15" t="s">
         <v>591</v>
       </c>
@@ -27405,7 +27419,7 @@
         <v>9.8244232698094276</v>
       </c>
     </row>
-    <row r="148" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="15" t="s">
         <v>493</v>
       </c>
@@ -27468,7 +27482,7 @@
         <v>9.8244232698094276</v>
       </c>
     </row>
-    <row r="149" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="15" t="s">
         <v>592</v>
       </c>
@@ -27531,7 +27545,7 @@
         <v>9.8244232698094276</v>
       </c>
     </row>
-    <row r="150" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="15" t="s">
         <v>678</v>
       </c>
@@ -27594,7 +27608,7 @@
         <v>-7.6755767301905724</v>
       </c>
     </row>
-    <row r="151" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="15" t="s">
         <v>682</v>
       </c>
@@ -27657,7 +27671,7 @@
         <v>12.324423269809428</v>
       </c>
     </row>
-    <row r="152" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="15" t="s">
         <v>323</v>
       </c>
@@ -27720,7 +27734,7 @@
         <v>-9.0555767301905714</v>
       </c>
     </row>
-    <row r="153" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="15" t="s">
         <v>478</v>
       </c>
@@ -27783,7 +27797,7 @@
         <v>5.9444232698094286</v>
       </c>
     </row>
-    <row r="154" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="15" t="s">
         <v>478</v>
       </c>
@@ -27846,7 +27860,7 @@
         <v>5.9444232698094286</v>
       </c>
     </row>
-    <row r="155" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="15" t="s">
         <v>478</v>
       </c>
@@ -27909,7 +27923,7 @@
         <v>0.94442326980942859</v>
       </c>
     </row>
-    <row r="156" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="15" t="s">
         <v>539</v>
       </c>
@@ -27972,7 +27986,7 @@
         <v>8.0197693079237702</v>
       </c>
     </row>
-    <row r="157" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="15" t="s">
         <v>539</v>
       </c>
@@ -28044,7 +28058,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="158" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="15" t="s">
         <v>539</v>
       </c>
@@ -28116,7 +28130,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="159" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="15" t="s">
         <v>539</v>
       </c>
@@ -28191,7 +28205,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="160" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>540</v>
       </c>
@@ -28254,7 +28268,7 @@
         <v>-6.9802306920762289</v>
       </c>
     </row>
-    <row r="161" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="15" t="s">
         <v>486</v>
       </c>
@@ -28317,7 +28331,7 @@
         <v>13.784423269809428</v>
       </c>
     </row>
-    <row r="162" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="15" t="s">
         <v>697</v>
       </c>
@@ -28380,7 +28394,7 @@
         <v>13.784423269809428</v>
       </c>
     </row>
-    <row r="163" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="15" t="s">
         <v>697</v>
       </c>
@@ -28443,7 +28457,7 @@
         <v>13.784423269809428</v>
       </c>
     </row>
-    <row r="164" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="15" t="s">
         <v>715</v>
       </c>
@@ -28506,7 +28520,7 @@
         <v>22.087211634904715</v>
       </c>
     </row>
-    <row r="165" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="15" t="s">
         <v>473</v>
       </c>
@@ -28569,7 +28583,7 @@
         <v>26.077211634904714</v>
       </c>
     </row>
-    <row r="166" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="15" t="s">
         <v>492</v>
       </c>
@@ -28632,7 +28646,7 @@
         <v>31.077211634904714</v>
       </c>
     </row>
-    <row r="167" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>488</v>
       </c>
@@ -28689,7 +28703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="15" t="s">
         <v>484</v>
       </c>
@@ -28752,7 +28766,7 @@
         <v>31.077211634904714</v>
       </c>
     </row>
-    <row r="169" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="15" t="s">
         <v>321</v>
       </c>
@@ -28824,7 +28838,7 @@
         <v>24.977211634904712</v>
       </c>
     </row>
-    <row r="170" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="15" t="s">
         <v>484</v>
       </c>
@@ -28877,7 +28891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="15" t="s">
         <v>814</v>
       </c>
@@ -28944,7 +28958,7 @@
         <v>24.977211634904712</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="M172" s="108"/>
       <c r="N172" s="105"/>
       <c r="R172" t="s">
@@ -28963,7 +28977,7 @@
         <v>1403.6233901705109</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>508</v>
       </c>
@@ -29031,7 +29045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="15" t="s">
         <v>434</v>
       </c>
@@ -29111,7 +29125,7 @@
         <v>15.369234899328859</v>
       </c>
     </row>
-    <row r="175" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
         <v>434</v>
       </c>
@@ -29186,7 +29200,7 @@
         <v>15.369234899328859</v>
       </c>
     </row>
-    <row r="176" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
         <v>321</v>
       </c>
@@ -29253,7 +29267,7 @@
         <v>18.268087248322146</v>
       </c>
     </row>
-    <row r="177" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="15" t="s">
         <v>321</v>
       </c>
@@ -29327,7 +29341,7 @@
         <v>18.268087248322146</v>
       </c>
     </row>
-    <row r="178" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="15" t="s">
         <v>468</v>
       </c>
@@ -29391,7 +29405,7 @@
         <v>16.468724832214765</v>
       </c>
     </row>
-    <row r="179" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="15" t="s">
         <v>468</v>
       </c>
@@ -29455,7 +29469,7 @@
         <v>16.468724832214765</v>
       </c>
     </row>
-    <row r="180" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="15" t="s">
         <v>468</v>
       </c>
@@ -29519,7 +29533,7 @@
         <v>17.088469798657719</v>
       </c>
     </row>
-    <row r="181" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="15" t="s">
         <v>468</v>
       </c>
@@ -29583,7 +29597,7 @@
         <v>99.714697986577178</v>
       </c>
     </row>
-    <row r="182" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="15" t="s">
         <v>473</v>
       </c>
@@ -29647,7 +29661,7 @@
         <v>17.488724832214764</v>
       </c>
     </row>
-    <row r="183" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="15" t="s">
         <v>473</v>
       </c>
@@ -29711,7 +29725,7 @@
         <v>17.488724832214764</v>
       </c>
     </row>
-    <row r="184" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="15" t="s">
         <v>476</v>
       </c>
@@ -29775,7 +29789,7 @@
         <v>47.157248322147652</v>
       </c>
     </row>
-    <row r="185" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="15" t="s">
         <v>477</v>
       </c>
@@ -29839,7 +29853,7 @@
         <v>47.157248322147652</v>
       </c>
     </row>
-    <row r="186" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="15" t="s">
         <v>480</v>
       </c>
@@ -29903,7 +29917,7 @@
         <v>57.083422818791945</v>
       </c>
     </row>
-    <row r="187" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C187" s="98"/>
       <c r="D187" s="5">
         <f t="shared" si="118"/>
@@ -29950,7 +29964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="51" t="s">
         <v>596</v>
       </c>
@@ -30012,7 +30026,7 @@
         <v>18.997449664429531</v>
       </c>
     </row>
-    <row r="189" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="51" t="s">
         <v>596</v>
       </c>
@@ -30076,7 +30090,7 @@
         <v>18.997449664429531</v>
       </c>
     </row>
-    <row r="190" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="51" t="s">
         <v>596</v>
       </c>
@@ -30140,7 +30154,7 @@
         <v>18.997449664429531</v>
       </c>
     </row>
-    <row r="191" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="51" t="s">
         <v>649</v>
       </c>
@@ -30204,7 +30218,7 @@
         <v>13.99744966442953</v>
       </c>
     </row>
-    <row r="192" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="51" t="s">
         <v>650</v>
       </c>
@@ -30268,7 +30282,7 @@
         <v>13.99744966442953</v>
       </c>
     </row>
-    <row r="193" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="51" t="s">
         <v>651</v>
       </c>
@@ -30332,7 +30346,7 @@
         <v>13.99744966442953</v>
       </c>
     </row>
-    <row r="194" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="51" t="s">
         <v>543</v>
       </c>
@@ -30396,7 +30410,7 @@
         <v>18.997449664429531</v>
       </c>
     </row>
-    <row r="195" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="51" t="s">
         <v>682</v>
       </c>
@@ -30460,7 +30474,7 @@
         <v>18.997449664429531</v>
       </c>
     </row>
-    <row r="196" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="51" t="s">
         <v>460</v>
       </c>
@@ -30524,7 +30538,7 @@
         <v>27.392348993288593</v>
       </c>
     </row>
-    <row r="197" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="51" t="s">
         <v>460</v>
       </c>
@@ -30588,7 +30602,7 @@
         <v>27.392348993288593</v>
       </c>
     </row>
-    <row r="198" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="51" t="s">
         <v>573</v>
       </c>
@@ -30652,7 +30666,7 @@
         <v>22.392348993288593</v>
       </c>
     </row>
-    <row r="199" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="51" t="s">
         <v>410</v>
       </c>
@@ -30716,7 +30730,7 @@
         <v>2.3923489932885929</v>
       </c>
     </row>
-    <row r="200" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="51" t="s">
         <v>410</v>
       </c>
@@ -30780,7 +30794,7 @@
         <v>2.3923489932885929</v>
       </c>
     </row>
-    <row r="201" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="51" t="s">
         <v>573</v>
       </c>
@@ -30844,7 +30858,7 @@
         <v>17.392348993288593</v>
       </c>
     </row>
-    <row r="202" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="51" t="s">
         <v>573</v>
       </c>
@@ -30908,7 +30922,7 @@
         <v>17.392348993288593</v>
       </c>
     </row>
-    <row r="203" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="51" t="s">
         <v>649</v>
       </c>
@@ -30972,7 +30986,7 @@
         <v>22.392348993288593</v>
       </c>
     </row>
-    <row r="204" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="51" t="s">
         <v>650</v>
       </c>
@@ -31036,7 +31050,7 @@
         <v>17.392348993288593</v>
       </c>
     </row>
-    <row r="205" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="51" t="s">
         <v>651</v>
       </c>
@@ -31100,7 +31114,7 @@
         <v>17.392348993288593</v>
       </c>
     </row>
-    <row r="206" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="51" t="s">
         <v>543</v>
       </c>
@@ -31164,7 +31178,7 @@
         <v>17.392348993288593</v>
       </c>
     </row>
-    <row r="207" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="51" t="s">
         <v>543</v>
       </c>
@@ -31228,7 +31242,7 @@
         <v>17.392348993288593</v>
       </c>
     </row>
-    <row r="208" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="100" t="s">
         <v>323</v>
       </c>
@@ -31287,7 +31301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="51" t="s">
         <v>602</v>
       </c>
@@ -31351,7 +31365,7 @@
         <v>37.166174496644295</v>
       </c>
     </row>
-    <row r="210" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="51" t="s">
         <v>323</v>
       </c>
@@ -31415,7 +31429,7 @@
         <v>-22.833825503355705</v>
       </c>
     </row>
-    <row r="211" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="51" t="s">
         <v>507</v>
       </c>
@@ -31479,7 +31493,7 @@
         <v>7.1661744966442953</v>
       </c>
     </row>
-    <row r="212" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="51" t="s">
         <v>539</v>
       </c>
@@ -31543,7 +31557,7 @@
         <v>27.166174496644295</v>
       </c>
     </row>
-    <row r="213" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="51" t="s">
         <v>574</v>
       </c>
@@ -31607,7 +31621,7 @@
         <v>38.077248322147653</v>
       </c>
     </row>
-    <row r="214" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="51" t="s">
         <v>571</v>
       </c>
@@ -31671,7 +31685,7 @@
         <v>34.387248322147649</v>
       </c>
     </row>
-    <row r="215" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="51" t="s">
         <v>543</v>
       </c>
@@ -31735,7 +31749,7 @@
         <v>18.368523489932883</v>
       </c>
     </row>
-    <row r="216" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="100" t="s">
         <v>323</v>
       </c>
@@ -31794,7 +31808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="51" t="s">
         <v>604</v>
       </c>
@@ -31858,7 +31872,7 @@
         <v>15.725753691275168</v>
       </c>
     </row>
-    <row r="218" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="51" t="s">
         <v>361</v>
       </c>
@@ -31922,7 +31936,7 @@
         <v>15.725753691275168</v>
       </c>
     </row>
-    <row r="219" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="51" t="s">
         <v>593</v>
       </c>
@@ -31986,7 +32000,7 @@
         <v>15.725753691275168</v>
       </c>
     </row>
-    <row r="220" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="51" t="s">
         <v>321</v>
       </c>
@@ -32050,7 +32064,7 @@
         <v>105.26214765100671</v>
       </c>
     </row>
-    <row r="221" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="51" t="s">
         <v>705</v>
       </c>
@@ -32114,7 +32128,7 @@
         <v>115.26214765100671</v>
       </c>
     </row>
-    <row r="222" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="51" t="s">
         <v>570</v>
       </c>
@@ -32178,7 +32192,7 @@
         <v>18.818087248322147</v>
       </c>
     </row>
-    <row r="223" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="51" t="s">
         <v>361</v>
       </c>
@@ -32242,7 +32256,7 @@
         <v>18.818087248322147</v>
       </c>
     </row>
-    <row r="224" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="51" t="s">
         <v>675</v>
       </c>
@@ -32306,7 +32320,7 @@
         <v>18.818087248322147</v>
       </c>
     </row>
-    <row r="225" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A225" s="52" t="s">
         <v>323</v>
       </c>
@@ -32362,7 +32376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A226" s="52" t="s">
         <v>323</v>
       </c>
@@ -32418,7 +32432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="51" t="s">
         <v>581</v>
       </c>
@@ -32482,7 +32496,7 @@
         <v>61.848087248322152</v>
       </c>
     </row>
-    <row r="228" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A228" s="52" t="s">
         <v>323</v>
       </c>
@@ -32538,7 +32552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="51" t="s">
         <v>507</v>
       </c>
@@ -32602,7 +32616,7 @@
         <v>16.898724832214764</v>
       </c>
     </row>
-    <row r="230" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="51" t="s">
         <v>593</v>
       </c>
@@ -32666,7 +32680,7 @@
         <v>16.398406040268455</v>
       </c>
     </row>
-    <row r="231" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A231" s="52" t="s">
         <v>323</v>
       </c>
@@ -32731,7 +32745,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="232" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="51" t="s">
         <v>579</v>
       </c>
@@ -32801,7 +32815,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="233" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="51" t="s">
         <v>361</v>
       </c>
@@ -32877,7 +32891,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="234" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="51" t="s">
         <v>580</v>
       </c>
@@ -32941,7 +32955,7 @@
         <v>53.906812080536909</v>
       </c>
     </row>
-    <row r="235" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="100" t="s">
         <v>323</v>
       </c>
@@ -32998,7 +33012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="100" t="s">
         <v>323</v>
       </c>
@@ -33055,7 +33069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="100" t="s">
         <v>323</v>
       </c>
@@ -33112,7 +33126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="100" t="s">
         <v>323</v>
       </c>
@@ -33169,7 +33183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A239" s="52" t="s">
         <v>323</v>
       </c>
@@ -33225,7 +33239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="52" t="s">
         <v>323</v>
       </c>
@@ -33284,7 +33298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="51" t="s">
         <v>574</v>
       </c>
@@ -33348,7 +33362,7 @@
         <v>62.958087248322144</v>
       </c>
     </row>
-    <row r="242" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="51" t="s">
         <v>678</v>
       </c>
@@ -33412,7 +33426,7 @@
         <v>-27.041912751677852</v>
       </c>
     </row>
-    <row r="243" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="52" t="s">
         <v>539</v>
       </c>
@@ -33471,7 +33485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="51" t="s">
         <v>561</v>
       </c>
@@ -33535,7 +33549,7 @@
         <v>67.157248322147652</v>
       </c>
     </row>
-    <row r="245" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="51" t="s">
         <v>604</v>
       </c>
@@ -33605,7 +33619,7 @@
         <v>13.518087248322146</v>
       </c>
     </row>
-    <row r="246" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="51" t="s">
         <v>323</v>
       </c>
@@ -33678,7 +33692,7 @@
         <v>-11.481912751677854</v>
       </c>
     </row>
-    <row r="247" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="53" t="s">
         <v>323</v>
       </c>
@@ -33737,7 +33751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="M248" s="108"/>
       <c r="Q248" t="s">
         <v>598</v>
@@ -33755,7 +33769,7 @@
         <v>1593.731284563758</v>
       </c>
     </row>
-    <row r="249" spans="1:24" s="121" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:24" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="121" t="s">
         <v>509</v>
       </c>
@@ -33824,7 +33838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="51" t="s">
         <v>511</v>
       </c>
@@ -33900,7 +33914,7 @@
         <v>16.638585858585856</v>
       </c>
     </row>
-    <row r="251" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="51" t="s">
         <v>512</v>
       </c>
@@ -33980,7 +33994,7 @@
         <v>17.883939393939393</v>
       </c>
     </row>
-    <row r="252" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="51" t="s">
         <v>512</v>
       </c>
@@ -34046,7 +34060,7 @@
         <v>17.883939393939393</v>
       </c>
     </row>
-    <row r="253" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="51" t="s">
         <v>512</v>
       </c>
@@ -34119,7 +34133,7 @@
         <v>52.916363636363641</v>
       </c>
     </row>
-    <row r="254" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="51" t="s">
         <v>517</v>
       </c>
@@ -34182,7 +34196,7 @@
         <v>18.673939393939392</v>
       </c>
     </row>
-    <row r="255" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="51" t="s">
         <v>517</v>
       </c>
@@ -34245,7 +34259,7 @@
         <v>24.616363636363637</v>
       </c>
     </row>
-    <row r="256" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="51" t="s">
         <v>519</v>
       </c>
@@ -34308,7 +34322,7 @@
         <v>24.616363636363637</v>
       </c>
     </row>
-    <row r="257" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="51" t="s">
         <v>519</v>
       </c>
@@ -34371,7 +34385,7 @@
         <v>17.916363636363638</v>
       </c>
     </row>
-    <row r="258" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="51" t="s">
         <v>519</v>
       </c>
@@ -34434,7 +34448,7 @@
         <v>19.716363636363639</v>
       </c>
     </row>
-    <row r="259" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A259" s="51" t="s">
         <v>519</v>
       </c>
@@ -34497,7 +34511,7 @@
         <v>21.463939393939395</v>
       </c>
     </row>
-    <row r="260" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" s="51" t="s">
         <v>486</v>
       </c>
@@ -34560,7 +34574,7 @@
         <v>27.653939393939396</v>
       </c>
     </row>
-    <row r="261" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A261" s="51" t="s">
         <v>525</v>
       </c>
@@ -34623,7 +34637,7 @@
         <v>26.063939393939396</v>
       </c>
     </row>
-    <row r="262" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="51" t="s">
         <v>531</v>
       </c>
@@ -34686,7 +34700,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="263" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A263" s="51" t="s">
         <v>400</v>
       </c>
@@ -34746,7 +34760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" s="51" t="s">
         <v>528</v>
       </c>
@@ -34809,7 +34823,7 @@
         <v>40.453939393939393</v>
       </c>
     </row>
-    <row r="265" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A265" s="51" t="s">
         <v>530</v>
       </c>
@@ -34872,7 +34886,7 @@
         <v>21.516363636363636</v>
       </c>
     </row>
-    <row r="266" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="51" t="s">
         <v>532</v>
       </c>
@@ -34935,7 +34949,7 @@
         <v>48.643939393939391</v>
       </c>
     </row>
-    <row r="267" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267" s="51" t="s">
         <v>535</v>
       </c>
@@ -34998,7 +35012,7 @@
         <v>25.083939393939392</v>
       </c>
     </row>
-    <row r="268" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="51" t="s">
         <v>535</v>
       </c>
@@ -35061,7 +35075,7 @@
         <v>42.916363636363641</v>
       </c>
     </row>
-    <row r="269" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A269" s="51" t="s">
         <v>537</v>
       </c>
@@ -35124,7 +35138,7 @@
         <v>17.896363636363638</v>
       </c>
     </row>
-    <row r="270" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="51" t="s">
         <v>541</v>
       </c>
@@ -35187,7 +35201,7 @@
         <v>17.916363636363638</v>
       </c>
     </row>
-    <row r="271" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="51" t="s">
         <v>543</v>
       </c>
@@ -35250,7 +35264,7 @@
         <v>38.398585858585861</v>
       </c>
     </row>
-    <row r="272" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="51" t="s">
         <v>544</v>
       </c>
@@ -35313,7 +35327,7 @@
         <v>74.49040404040403</v>
       </c>
     </row>
-    <row r="273" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="51" t="s">
         <v>545</v>
       </c>
@@ -35376,7 +35390,7 @@
         <v>66.184343434343432</v>
       </c>
     </row>
-    <row r="274" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="51" t="s">
         <v>546</v>
       </c>
@@ -35439,7 +35453,7 @@
         <v>72.24040404040403</v>
       </c>
     </row>
-    <row r="275" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="51" t="s">
         <v>550</v>
       </c>
@@ -35502,7 +35516,7 @@
         <v>36.853939393939399</v>
       </c>
     </row>
-    <row r="276" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="53" t="s">
         <v>553</v>
       </c>
@@ -35556,7 +35570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="51" t="s">
         <v>554</v>
       </c>
@@ -35619,7 +35633,7 @@
         <v>79.161111111111111</v>
       </c>
     </row>
-    <row r="278" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="15" t="s">
         <v>361</v>
       </c>
@@ -35680,7 +35694,7 @@
         <v>34.12929292929293</v>
       </c>
     </row>
-    <row r="279" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="51" t="s">
         <v>556</v>
       </c>
@@ -35743,7 +35757,7 @@
         <v>72.210404040404043</v>
       </c>
     </row>
-    <row r="280" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="51" t="s">
         <v>559</v>
       </c>
@@ -35806,7 +35820,7 @@
         <v>49.161111111111111</v>
       </c>
     </row>
-    <row r="281" spans="1:28" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:28" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="59"/>
       <c r="C281" s="152"/>
       <c r="E281" s="59"/>
@@ -35840,7 +35854,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="282" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="51" t="s">
         <v>593</v>
       </c>
@@ -35913,7 +35927,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="283" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="51" t="s">
         <v>590</v>
       </c>
@@ -35986,7 +36000,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="284" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="51" t="s">
         <v>590</v>
       </c>
@@ -36047,7 +36061,7 @@
         <v>14.127575757575759</v>
       </c>
     </row>
-    <row r="285" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="51" t="s">
         <v>594</v>
       </c>
@@ -36108,7 +36122,7 @@
         <v>14.54050505050505</v>
       </c>
     </row>
-    <row r="286" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="51" t="s">
         <v>323</v>
       </c>
@@ -36171,7 +36185,7 @@
         <v>-4.6624242424242421</v>
       </c>
     </row>
-    <row r="287" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="51" t="s">
         <v>595</v>
       </c>
@@ -36234,7 +36248,7 @@
         <v>7.8375757575757579</v>
       </c>
     </row>
-    <row r="288" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="51" t="s">
         <v>595</v>
       </c>
@@ -36297,7 +36311,7 @@
         <v>7.8375757575757579</v>
       </c>
     </row>
-    <row r="289" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="52" t="s">
         <v>323</v>
       </c>
@@ -36355,7 +36369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="51" t="s">
         <v>676</v>
       </c>
@@ -36418,7 +36432,7 @@
         <v>74.225757575757569</v>
       </c>
     </row>
-    <row r="291" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" s="51" t="s">
         <v>680</v>
       </c>
@@ -36481,7 +36495,7 @@
         <v>-53.815656565656568</v>
       </c>
     </row>
-    <row r="292" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="51" t="s">
         <v>323</v>
       </c>
@@ -36549,7 +36563,7 @@
         <v>-61.454242424242423</v>
       </c>
     </row>
-    <row r="293" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="51" t="s">
         <v>679</v>
       </c>
@@ -36617,7 +36631,7 @@
         <v>10.904646464646465</v>
       </c>
     </row>
-    <row r="294" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="51" t="s">
         <v>478</v>
       </c>
@@ -36678,7 +36692,7 @@
         <v>26.904646464646465</v>
       </c>
     </row>
-    <row r="295" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="51" t="s">
         <v>323</v>
       </c>
@@ -36747,7 +36761,7 @@
         <v>-48.032626262626266</v>
       </c>
     </row>
-    <row r="296" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="52" t="s">
         <v>539</v>
       </c>
@@ -36813,7 +36827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="52" t="s">
         <v>539</v>
       </c>
@@ -36873,7 +36887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:24" s="137" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:24" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="136"/>
       <c r="C298" s="138"/>
       <c r="E298" s="136"/>
@@ -36895,7 +36909,7 @@
         <v>1123.7581818181816</v>
       </c>
     </row>
-    <row r="299" spans="1:24" s="137" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:24" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="136"/>
       <c r="C299" s="138"/>
       <c r="E299" s="136"/>
@@ -36909,7 +36923,7 @@
       <c r="S299" s="145"/>
       <c r="V299" s="136"/>
     </row>
-    <row r="301" spans="1:24" s="121" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:24" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="121" t="s">
         <v>582</v>
       </c>
@@ -36978,7 +36992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="51" t="s">
         <v>583</v>
       </c>
@@ -37053,7 +37067,7 @@
         <v>19.144399999999997</v>
       </c>
     </row>
-    <row r="303" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="51" t="s">
         <v>583</v>
       </c>
@@ -37127,7 +37141,7 @@
         <v>27.163999999999998</v>
       </c>
     </row>
-    <row r="304" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="51" t="s">
         <v>583</v>
       </c>
@@ -37190,7 +37204,7 @@
         <v>57.91</v>
       </c>
     </row>
-    <row r="305" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="51" t="s">
         <v>583</v>
       </c>
@@ -37254,7 +37268,7 @@
         <v>37.151200000000003</v>
       </c>
     </row>
-    <row r="306" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A306" s="51" t="s">
         <v>726</v>
       </c>
@@ -37319,7 +37333,7 @@
         <v>44.9696</v>
       </c>
     </row>
-    <row r="307" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="51" t="s">
         <v>604</v>
       </c>
@@ -37383,7 +37397,7 @@
         <v>15.725999999999999</v>
       </c>
     </row>
-    <row r="308" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="51" t="s">
         <v>511</v>
       </c>
@@ -37447,7 +37461,7 @@
         <v>14.926</v>
       </c>
     </row>
-    <row r="309" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="51" t="s">
         <v>591</v>
       </c>
@@ -37511,7 +37525,7 @@
         <v>14.194399999999998</v>
       </c>
     </row>
-    <row r="310" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="51" t="s">
         <v>591</v>
       </c>
@@ -37575,7 +37589,7 @@
         <v>15.783999999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="51" t="s">
         <v>609</v>
       </c>
@@ -37639,7 +37653,7 @@
         <v>27.851999999999997</v>
       </c>
     </row>
-    <row r="312" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A312" s="51" t="s">
         <v>609</v>
       </c>
@@ -37703,7 +37717,7 @@
         <v>-9.2160000000000011</v>
       </c>
     </row>
-    <row r="313" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="51" t="s">
         <v>478</v>
       </c>
@@ -37767,7 +37781,7 @@
         <v>30.631999999999998</v>
       </c>
     </row>
-    <row r="314" spans="1:24" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:24" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="30" t="s">
         <v>613</v>
       </c>
@@ -37828,7 +37842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:24" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:24" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="30" t="s">
         <v>613</v>
       </c>
@@ -37889,7 +37903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A316" s="51" t="s">
         <v>517</v>
       </c>
@@ -37953,7 +37967,7 @@
         <v>16.926000000000002</v>
       </c>
     </row>
-    <row r="317" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="51" t="s">
         <v>615</v>
       </c>
@@ -38017,7 +38031,7 @@
         <v>22.252800000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A318" s="51" t="s">
         <v>615</v>
       </c>
@@ -38081,7 +38095,7 @@
         <v>15.468</v>
       </c>
     </row>
-    <row r="319" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="51" t="s">
         <v>346</v>
       </c>
@@ -38145,7 +38159,7 @@
         <v>46.494</v>
       </c>
     </row>
-    <row r="320" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A320" s="51" t="s">
         <v>617</v>
       </c>
@@ -38209,7 +38223,7 @@
         <v>16.1312</v>
       </c>
     </row>
-    <row r="321" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" s="51" t="s">
         <v>617</v>
       </c>
@@ -38273,7 +38287,7 @@
         <v>14.926</v>
       </c>
     </row>
-    <row r="322" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A322" s="51" t="s">
         <v>618</v>
       </c>
@@ -38337,7 +38351,7 @@
         <v>81.955999999999989</v>
       </c>
     </row>
-    <row r="323" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="51" t="s">
         <v>578</v>
       </c>
@@ -38401,7 +38415,7 @@
         <v>74.437999999999988</v>
       </c>
     </row>
-    <row r="324" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="51" t="s">
         <v>621</v>
       </c>
@@ -38465,7 +38479,7 @@
         <v>18.378799999999998</v>
       </c>
     </row>
-    <row r="325" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" s="51" t="s">
         <v>460</v>
       </c>
@@ -38529,7 +38543,7 @@
         <v>74.437999999999988</v>
       </c>
     </row>
-    <row r="326" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A326" s="51" t="s">
         <v>623</v>
       </c>
@@ -38593,7 +38607,7 @@
         <v>16.731200000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="51" t="s">
         <v>623</v>
       </c>
@@ -38657,7 +38671,7 @@
         <v>15.1996</v>
       </c>
     </row>
-    <row r="328" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="51" t="s">
         <v>623</v>
       </c>
@@ -38721,7 +38735,7 @@
         <v>25.904399999999999</v>
       </c>
     </row>
-    <row r="329" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A329" s="51" t="s">
         <v>350</v>
       </c>
@@ -38785,7 +38799,7 @@
         <v>18.378799999999998</v>
       </c>
     </row>
-    <row r="330" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" s="51" t="s">
         <v>625</v>
       </c>
@@ -38847,7 +38861,7 @@
         <v>-10.3484</v>
       </c>
     </row>
-    <row r="331" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A331" s="51" t="s">
         <v>626</v>
       </c>
@@ -38911,7 +38925,7 @@
         <v>47.206000000000003</v>
       </c>
     </row>
-    <row r="332" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" s="51" t="s">
         <v>628</v>
       </c>
@@ -38975,7 +38989,7 @@
         <v>47.206000000000003</v>
       </c>
     </row>
-    <row r="333" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A333" s="51" t="s">
         <v>517</v>
       </c>
@@ -39041,7 +39055,7 @@
         <v>47.206000000000003</v>
       </c>
     </row>
-    <row r="334" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" s="51" t="s">
         <v>630</v>
       </c>
@@ -39105,7 +39119,7 @@
         <v>47.206000000000003</v>
       </c>
     </row>
-    <row r="335" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A335" s="51" t="s">
         <v>631</v>
       </c>
@@ -39169,7 +39183,7 @@
         <v>47.206000000000003</v>
       </c>
     </row>
-    <row r="336" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" s="51" t="s">
         <v>492</v>
       </c>
@@ -39233,7 +39247,7 @@
         <v>47.206000000000003</v>
       </c>
     </row>
-    <row r="337" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="51" t="s">
         <v>633</v>
       </c>
@@ -39297,7 +39311,7 @@
         <v>47.206000000000003</v>
       </c>
     </row>
-    <row r="338" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="51" t="s">
         <v>634</v>
       </c>
@@ -39361,7 +39375,7 @@
         <v>47.206000000000003</v>
       </c>
     </row>
-    <row r="339" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A339" s="51" t="s">
         <v>635</v>
       </c>
@@ -39425,7 +39439,7 @@
         <v>47.206000000000003</v>
       </c>
     </row>
-    <row r="340" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="51" t="s">
         <v>636</v>
       </c>
@@ -39489,7 +39503,7 @@
         <v>47.206000000000003</v>
       </c>
     </row>
-    <row r="341" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A341" s="51" t="s">
         <v>637</v>
       </c>
@@ -39553,7 +39567,7 @@
         <v>-26.736000000000001</v>
       </c>
     </row>
-    <row r="342" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A342" s="51" t="s">
         <v>639</v>
       </c>
@@ -39617,7 +39631,7 @@
         <v>48.263999999999996</v>
       </c>
     </row>
-    <row r="343" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A343" s="51" t="s">
         <v>640</v>
       </c>
@@ -39681,7 +39695,7 @@
         <v>47.206000000000003</v>
       </c>
     </row>
-    <row r="344" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A344" s="51" t="s">
         <v>641</v>
       </c>
@@ -39745,7 +39759,7 @@
         <v>48.263999999999996</v>
       </c>
     </row>
-    <row r="345" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A345" s="51" t="s">
         <v>625</v>
       </c>
@@ -39809,7 +39823,7 @@
         <v>-57.422000000000004</v>
       </c>
     </row>
-    <row r="346" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" s="51" t="s">
         <v>642</v>
       </c>
@@ -39873,7 +39887,7 @@
         <v>47.206000000000003</v>
       </c>
     </row>
-    <row r="347" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A347" s="51" t="s">
         <v>511</v>
       </c>
@@ -39937,7 +39951,7 @@
         <v>48.263999999999996</v>
       </c>
     </row>
-    <row r="348" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" s="51" t="s">
         <v>360</v>
       </c>
@@ -40001,7 +40015,7 @@
         <v>47.206000000000003</v>
       </c>
     </row>
-    <row r="349" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A349" s="51" t="s">
         <v>645</v>
       </c>
@@ -40074,7 +40088,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="350" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" s="51" t="s">
         <v>647</v>
       </c>
@@ -40144,7 +40158,7 @@
         <v>-1845</v>
       </c>
     </row>
-    <row r="351" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351" s="51" t="s">
         <v>648</v>
       </c>
@@ -40225,7 +40239,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="352" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A352" s="51" t="s">
         <v>653</v>
       </c>
@@ -40307,7 +40321,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="353" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" s="51" t="s">
         <v>654</v>
       </c>
@@ -40389,7 +40403,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="354" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A354" s="51" t="s">
         <v>543</v>
       </c>
@@ -40471,7 +40485,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="355" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" s="51" t="s">
         <v>660</v>
       </c>
@@ -40547,7 +40561,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="356" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A356" s="51" t="s">
         <v>660</v>
       </c>
@@ -40611,7 +40625,7 @@
         <v>71.009999999999991</v>
       </c>
     </row>
-    <row r="357" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" s="51" t="s">
         <v>660</v>
       </c>
@@ -40675,7 +40689,7 @@
         <v>78.843999999999994</v>
       </c>
     </row>
-    <row r="358" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A358" s="51" t="s">
         <v>714</v>
       </c>
@@ -40739,7 +40753,7 @@
         <v>15.783999999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" s="51" t="s">
         <v>670</v>
       </c>
@@ -40803,7 +40817,7 @@
         <v>14.927999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="53" t="s">
         <v>654</v>
       </c>
@@ -40861,7 +40875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:28" x14ac:dyDescent="0.2">
       <c r="W361" s="38">
         <f>W360+W359+W358+W357+W356+W355+W354+W353+W352+W351+W350+W349+W348+W347+W346+W345+W344+W343+W342+W341+W340+W339+W338+W337+W336+W335+W334+W333+W332+W331+W330+W329+W328+W327+W326+W325+W324+W323+W322+W321+W320+W319+W318+W317+W315+W316+W314+W313+W312+W311+W310+W309+W308+W307+W306+W302+W303+W304+W305</f>
         <v>3690</v>
@@ -40871,7 +40885,7 @@
         <v>1864.6699999999996</v>
       </c>
     </row>
-    <row r="362" spans="1:28" s="121" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:28" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A362" s="121" t="s">
         <v>683</v>
       </c>
@@ -40940,7 +40954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" s="51" t="s">
         <v>604</v>
       </c>
@@ -41016,7 +41030,7 @@
         <v>18.311140939597315</v>
       </c>
     </row>
-    <row r="364" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A364" s="51" t="s">
         <v>604</v>
       </c>
@@ -41088,7 +41102,7 @@
         <v>18.311140939597315</v>
       </c>
     </row>
-    <row r="365" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" s="51" t="s">
         <v>604</v>
       </c>
@@ -41158,7 +41172,7 @@
         <v>39.185570469798662</v>
       </c>
     </row>
-    <row r="366" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A366" s="51" t="s">
         <v>604</v>
       </c>
@@ -41225,7 +41239,7 @@
         <v>39.185570469798662</v>
       </c>
     </row>
-    <row r="367" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A367" s="51" t="s">
         <v>604</v>
       </c>
@@ -41292,7 +41306,7 @@
         <v>46.376979865771808</v>
       </c>
     </row>
-    <row r="368" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A368" s="51" t="s">
         <v>684</v>
       </c>
@@ -41355,7 +41369,7 @@
         <v>43.712684563758387</v>
       </c>
     </row>
-    <row r="369" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" s="51" t="s">
         <v>684</v>
       </c>
@@ -41418,7 +41432,7 @@
         <v>51.130939597315432</v>
       </c>
     </row>
-    <row r="370" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A370" s="51" t="s">
         <v>687</v>
       </c>
@@ -41481,7 +41495,7 @@
         <v>92.637449664429539</v>
       </c>
     </row>
-    <row r="371" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" s="51" t="s">
         <v>688</v>
       </c>
@@ -41544,7 +41558,7 @@
         <v>89.84093959731544</v>
       </c>
     </row>
-    <row r="372" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A372" s="51" t="s">
         <v>543</v>
       </c>
@@ -41607,7 +41621,7 @@
         <v>101.48093959731544</v>
       </c>
     </row>
-    <row r="373" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" s="51" t="s">
         <v>691</v>
       </c>
@@ -41670,7 +41684,7 @@
         <v>101.48093959731544</v>
       </c>
     </row>
-    <row r="374" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A374" s="51" t="s">
         <v>693</v>
       </c>
@@ -41733,7 +41747,7 @@
         <v>35.930872483221478</v>
       </c>
     </row>
-    <row r="375" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" s="51" t="s">
         <v>693</v>
       </c>
@@ -41796,7 +41810,7 @@
         <v>22.660872483221475</v>
       </c>
     </row>
-    <row r="376" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A376" s="51" t="s">
         <v>696</v>
       </c>
@@ -41859,7 +41873,7 @@
         <v>18.827315436241612</v>
       </c>
     </row>
-    <row r="377" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" s="51" t="s">
         <v>696</v>
       </c>
@@ -41922,7 +41936,7 @@
         <v>18.437315436241612</v>
       </c>
     </row>
-    <row r="378" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A378" s="51" t="s">
         <v>696</v>
       </c>
@@ -41984,7 +41998,7 @@
         <v>37.911140939597317</v>
       </c>
     </row>
-    <row r="379" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" s="51" t="s">
         <v>696</v>
       </c>
@@ -42046,7 +42060,7 @@
         <v>37.911140939597317</v>
       </c>
     </row>
-    <row r="380" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A380" s="51" t="s">
         <v>702</v>
       </c>
@@ -42108,7 +42122,7 @@
         <v>18.311140939597315</v>
       </c>
     </row>
-    <row r="381" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" s="51" t="s">
         <v>492</v>
       </c>
@@ -42170,7 +42184,7 @@
         <v>18.311140939597315</v>
       </c>
     </row>
-    <row r="382" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A382" s="51" t="s">
         <v>706</v>
       </c>
@@ -42235,7 +42249,7 @@
         <v>44.115570469798655</v>
       </c>
     </row>
-    <row r="383" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" s="51" t="s">
         <v>707</v>
       </c>
@@ -42299,7 +42313,7 @@
         <v>55.855570469798657</v>
       </c>
     </row>
-    <row r="384" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A384" s="51" t="s">
         <v>696</v>
       </c>
@@ -42363,7 +42377,7 @@
         <v>55.855570469798657</v>
       </c>
     </row>
-    <row r="385" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="51" t="s">
         <v>696</v>
       </c>
@@ -42432,7 +42446,7 @@
         <v>92.44234899328859</v>
       </c>
     </row>
-    <row r="386" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A386" s="51" t="s">
         <v>460</v>
       </c>
@@ -42502,7 +42516,7 @@
         <v>16.891744966442953</v>
       </c>
     </row>
-    <row r="387" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="51" t="s">
         <v>544</v>
       </c>
@@ -42572,7 +42586,7 @@
         <v>89.84093959731544</v>
       </c>
     </row>
-    <row r="388" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="51" t="s">
         <v>455</v>
       </c>
@@ -42642,7 +42656,7 @@
         <v>115.91442953020135</v>
       </c>
     </row>
-    <row r="389" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="51" t="s">
         <v>460</v>
       </c>
@@ -42706,7 +42720,7 @@
         <v>91.074429530201343</v>
       </c>
     </row>
-    <row r="390" spans="1:24" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:24" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="59" t="s">
         <v>323</v>
       </c>
@@ -42762,7 +42776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="59" t="s">
         <v>323</v>
       </c>
@@ -42818,7 +42832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="59" t="s">
         <v>323</v>
       </c>
@@ -42876,7 +42890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="59" t="s">
         <v>323</v>
       </c>
@@ -42933,7 +42947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394" s="51" t="s">
         <v>806</v>
       </c>
@@ -43000,7 +43014,7 @@
         <v>18.311140939597315</v>
       </c>
     </row>
-    <row r="395" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="51" t="s">
         <v>678</v>
       </c>
@@ -43063,7 +43077,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="396" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A396" s="51" t="s">
         <v>678</v>
       </c>
@@ -43126,7 +43140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="52" t="s">
         <v>539</v>
       </c>
@@ -43183,7 +43197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="51" t="s">
         <v>678</v>
       </c>
@@ -43246,7 +43260,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="399" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
       <c r="W399" s="38">
         <f>W398+W397+W396+W395+W394+W393+W392+W391+W390+W389+W388+W387+W386+W385+W384+W383+W382+W381+W380+W379+W378+W377+W376+W375+W374+W373+W372+W371+W370+W369+W368+W367+W366+W365+W364+W363</f>
         <v>2418</v>
@@ -43256,7 +43270,7 @@
         <v>1520.2569798657721</v>
       </c>
     </row>
-    <row r="400" spans="1:24" s="121" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:24" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" s="121" t="s">
         <v>727</v>
       </c>
@@ -43325,7 +43339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="401" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A401" s="52" t="s">
         <v>733</v>
       </c>
@@ -43395,7 +43409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="52" t="s">
         <v>733</v>
       </c>
@@ -43456,7 +43470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="51" t="s">
         <v>736</v>
       </c>
@@ -43530,7 +43544,7 @@
         <v>5.5371887550200807</v>
       </c>
     </row>
-    <row r="404" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="51" t="s">
         <v>737</v>
       </c>
@@ -43594,7 +43608,7 @@
         <v>32.378594377510041</v>
       </c>
     </row>
-    <row r="405" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A405" s="51" t="s">
         <v>737</v>
       </c>
@@ -43658,7 +43672,7 @@
         <v>14.671485943775101</v>
       </c>
     </row>
-    <row r="406" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="51" t="s">
         <v>737</v>
       </c>
@@ -43722,7 +43736,7 @@
         <v>42.758674698795176</v>
       </c>
     </row>
-    <row r="407" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A407" s="51" t="s">
         <v>741</v>
       </c>
@@ -43786,7 +43800,7 @@
         <v>13.3644578313253</v>
       </c>
     </row>
-    <row r="408" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="52" t="s">
         <v>323</v>
       </c>
@@ -43844,7 +43858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="51" t="s">
         <v>744</v>
       </c>
@@ -43908,7 +43922,7 @@
         <v>37.777831325301207</v>
       </c>
     </row>
-    <row r="410" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="51" t="s">
         <v>745</v>
       </c>
@@ -43979,7 +43993,7 @@
         <v>53.528835341365465</v>
       </c>
     </row>
-    <row r="411" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="51" t="s">
         <v>746</v>
       </c>
@@ -44049,7 +44063,7 @@
         <v>83.79160642570281</v>
       </c>
     </row>
-    <row r="412" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="51" t="s">
         <v>749</v>
       </c>
@@ -44119,7 +44133,7 @@
         <v>75.328634538152613</v>
       </c>
     </row>
-    <row r="413" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A413" s="52" t="s">
         <v>750</v>
       </c>
@@ -44185,7 +44199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="51" t="s">
         <v>798</v>
       </c>
@@ -44249,7 +44263,7 @@
         <v>70.334578313253004</v>
       </c>
     </row>
-    <row r="415" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A415" s="51" t="s">
         <v>799</v>
       </c>
@@ -44313,7 +44327,7 @@
         <v>74.391606425702804</v>
       </c>
     </row>
-    <row r="416" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A416" s="59" t="s">
         <v>323</v>
       </c>
@@ -44367,7 +44381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:24" x14ac:dyDescent="0.2">
       <c r="V417" s="48">
         <f>V416+V415+V414+V413+V412+V410+V411+V409+V408+V407+V406+V405+V404+V403+V402+V401</f>
         <v>486.13650602409638</v>
@@ -44381,7 +44395,7 @@
         <v>503.86349397590362</v>
       </c>
     </row>
-    <row r="418" spans="1:24" s="121" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:24" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" s="121" t="s">
         <v>764</v>
       </c>
@@ -44450,7 +44464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A419" s="15" t="s">
         <v>350</v>
       </c>
@@ -44520,7 +44534,7 @@
         <v>88.896451612903221</v>
       </c>
     </row>
-    <row r="420" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" s="15" t="s">
         <v>628</v>
       </c>
@@ -44589,7 +44603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="15" t="s">
         <v>769</v>
       </c>
@@ -44656,7 +44670,7 @@
         <v>88.896451612903221</v>
       </c>
     </row>
-    <row r="422" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:24" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="53" t="s">
         <v>770</v>
       </c>
@@ -44722,7 +44736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="15" t="s">
         <v>779</v>
       </c>
@@ -44790,7 +44804,7 @@
         <v>51.249677419354839</v>
       </c>
     </row>
-    <row r="424" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="15" t="s">
         <v>789</v>
       </c>
@@ -44851,7 +44865,7 @@
         <v>51.249677419354839</v>
       </c>
     </row>
-    <row r="425" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" s="15" t="s">
         <v>768</v>
       </c>
@@ -44912,7 +44926,7 @@
         <v>51.249677419354839</v>
       </c>
     </row>
-    <row r="426" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A426" s="15" t="s">
         <v>768</v>
       </c>
@@ -44973,7 +44987,7 @@
         <v>51.249677419354839</v>
       </c>
     </row>
-    <row r="427" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" s="15" t="s">
         <v>618</v>
       </c>
@@ -45034,7 +45048,7 @@
         <v>25.649354838709677</v>
       </c>
     </row>
-    <row r="428" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A428" s="15" t="s">
         <v>618</v>
       </c>
@@ -45095,7 +45109,7 @@
         <v>26.199354838709677</v>
       </c>
     </row>
-    <row r="429" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" s="15" t="s">
         <v>779</v>
       </c>
@@ -45156,7 +45170,7 @@
         <v>26.199354838709677</v>
       </c>
     </row>
-    <row r="430" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="15" t="s">
         <v>786</v>
       </c>
@@ -45217,7 +45231,7 @@
         <v>26.199354838709677</v>
       </c>
     </row>
-    <row r="431" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="15" t="s">
         <v>778</v>
       </c>
@@ -45278,7 +45292,7 @@
         <v>26.199354838709677</v>
       </c>
     </row>
-    <row r="432" spans="1:24" s="172" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:24" s="172" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="172" t="s">
         <v>781</v>
       </c>
@@ -45339,7 +45353,7 @@
         <v>26.199354838709677</v>
       </c>
     </row>
-    <row r="433" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" s="15" t="s">
         <v>781</v>
       </c>
@@ -45400,7 +45414,7 @@
         <v>25.649354838709677</v>
       </c>
     </row>
-    <row r="434" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A434" s="15" t="s">
         <v>774</v>
       </c>
@@ -45461,7 +45475,7 @@
         <v>21.236129032258063</v>
       </c>
     </row>
-    <row r="435" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="15" t="s">
         <v>702</v>
       </c>
@@ -45522,7 +45536,7 @@
         <v>21.646129032258067</v>
       </c>
     </row>
-    <row r="436" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A436" s="15" t="s">
         <v>458</v>
       </c>
@@ -45583,7 +45597,7 @@
         <v>21.646129032258067</v>
       </c>
     </row>
-    <row r="437" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="15" t="s">
         <v>780</v>
       </c>
@@ -45644,7 +45658,7 @@
         <v>21.646129032258067</v>
       </c>
     </row>
-    <row r="438" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="15" t="s">
         <v>787</v>
       </c>
@@ -45705,7 +45719,7 @@
         <v>20.23935483870968</v>
       </c>
     </row>
-    <row r="439" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="15" t="s">
         <v>783</v>
       </c>
@@ -45772,7 +45786,7 @@
         <v>87.436451612903227</v>
       </c>
     </row>
-    <row r="440" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A440" s="15" t="s">
         <v>458</v>
       </c>
@@ -45840,7 +45854,7 @@
         <v>88.959032258064511</v>
       </c>
     </row>
-    <row r="441" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="15" t="s">
         <v>458</v>
       </c>
@@ -45907,7 +45921,7 @@
         <v>82.759032258064508</v>
       </c>
     </row>
-    <row r="442" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A442" s="15" t="s">
         <v>793</v>
       </c>
@@ -45974,7 +45988,7 @@
         <v>79.149677419354845</v>
       </c>
     </row>
-    <row r="443" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="15" t="s">
         <v>794</v>
       </c>
@@ -46035,7 +46049,7 @@
         <v>79.149677419354845</v>
       </c>
     </row>
-    <row r="444" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A444" s="51" t="s">
         <v>796</v>
       </c>
@@ -46096,7 +46110,7 @@
         <v>17.229354838709678</v>
       </c>
     </row>
-    <row r="445" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" s="51" t="s">
         <v>796</v>
       </c>
@@ -46157,7 +46171,7 @@
         <v>17.229354838709678</v>
       </c>
     </row>
-    <row r="446" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A446" s="51" t="s">
         <v>796</v>
       </c>
@@ -46221,7 +46235,7 @@
         <v>16.287419354838711</v>
       </c>
     </row>
-    <row r="447" spans="1:24" s="163" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:24" s="163" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" s="163" t="s">
         <v>323</v>
       </c>
@@ -46276,7 +46290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:24" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A448" s="15" t="s">
         <v>770</v>
       </c>
@@ -46337,7 +46351,7 @@
         <v>84.391290322580645</v>
       </c>
     </row>
-    <row r="449" spans="1:24" s="163" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:24" s="163" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A449" s="163" t="s">
         <v>323</v>
       </c>
@@ -46392,7 +46406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:24" s="163" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:24" s="163" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A450" s="163" t="s">
         <v>805</v>
       </c>
@@ -46447,7 +46461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:24" s="163" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:24" s="163" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A451" s="163" t="s">
         <v>323</v>
       </c>
@@ -46504,7 +46518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A452" s="10" t="s">
         <v>323</v>
       </c>
@@ -46559,7 +46573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A453" s="10" t="s">
         <v>323</v>
       </c>
@@ -46620,7 +46634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A454" s="10" t="s">
         <v>323</v>
       </c>
@@ -46673,7 +46687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" s="10" t="s">
         <v>323</v>
       </c>
@@ -46730,7 +46744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A456" s="10" t="s">
         <v>323</v>
       </c>
@@ -46791,13 +46805,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:24" x14ac:dyDescent="0.2">
       <c r="W457" s="38">
         <f>W456+W455+W454+W453+W452+W451+W450+W449+W447+W448+W446+W445+W444+W443+W442+W441+W440+W439+W438+W436+W437+W435+W434+W433+W432+W431+W430+W429+W428+W427+W426+W425+W424+W423+W422+W421+W420+W419</f>
         <v>2090</v>
       </c>
     </row>
-    <row r="458" spans="1:24" s="121" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:24" s="121" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A458" s="121" t="s">
         <v>818</v>
       </c>
@@ -46866,7 +46880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="459" spans="1:24" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:24" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" s="182" t="s">
         <v>583</v>
       </c>
@@ -46930,7 +46944,7 @@
         <v>37.151200000000003</v>
       </c>
     </row>
-    <row r="460" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A460" s="52" t="s">
         <v>583</v>
       </c>
@@ -46994,7 +47008,7 @@
         <v>95.103759999999994</v>
       </c>
     </row>
-    <row r="461" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A461" s="52" t="s">
         <v>583</v>
       </c>
@@ -47002,7 +47016,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="462" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A462" s="52" t="s">
         <v>583</v>
       </c>
@@ -47017,16 +47031,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>731</v>
       </c>
@@ -47061,7 +47075,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="156">
         <v>44200</v>
       </c>
@@ -47087,7 +47101,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="156">
         <v>44201</v>
       </c>
@@ -47110,7 +47124,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="156">
         <v>44202</v>
       </c>
@@ -47130,7 +47144,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="156">
         <v>44204</v>
       </c>
@@ -47147,7 +47161,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="156">
         <v>44205</v>
       </c>
@@ -47164,7 +47178,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="161" t="s">
         <v>754</v>
       </c>
@@ -47184,7 +47198,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="156">
         <v>44207</v>
       </c>
@@ -47201,7 +47215,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="156">
         <v>44211</v>
       </c>
@@ -47209,7 +47223,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D10">
         <v>1000</v>
       </c>
